--- a/MS2/workinprogress/EIS Projektplan.xlsx
+++ b/MS2/workinprogress/EIS Projektplan.xlsx
@@ -1,12 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannes/EIS16_17/MS2/workinprogress/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Tabellenblatt1" sheetId="1" r:id="rId3"/>
+    <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -391,38 +407,50 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="d. mmmm"/>
-    <numFmt numFmtId="165" formatCode="d.m."/>
+    <numFmt numFmtId="164" formatCode="d\.\ mmmm"/>
+    <numFmt numFmtId="165" formatCode="d\.m\."/>
     <numFmt numFmtId="166" formatCode="d&quot;. &quot;mmmm"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Consolas"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
     </font>
@@ -432,7 +460,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -489,6 +517,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -501,6 +530,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -511,6 +541,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -523,6 +554,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -531,6 +563,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -539,6 +572,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -549,6 +583,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -563,6 +598,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -573,311 +609,574 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="89">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="7" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="8" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="7" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="8" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="9" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="9" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA813"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.29"/>
-    <col customWidth="1" min="2" max="2" width="25.71"/>
-    <col customWidth="1" min="3" max="3" width="26.29"/>
-    <col customWidth="1" min="4" max="4" width="31.57"/>
-    <col customWidth="1" min="5" max="5" width="31.29"/>
-    <col customWidth="1" min="6" max="7" width="20.43"/>
-    <col customWidth="1" min="8" max="27" width="25.71"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="27" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.0" customHeight="1">
+    <row r="1" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,7 +1219,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" ht="21.75" customHeight="1">
+    <row r="2" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
@@ -953,7 +1252,7 @@
       <c r="Z2" s="13"/>
       <c r="AA2" s="13"/>
     </row>
-    <row r="3" ht="21.75" customHeight="1">
+    <row r="3" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="14"/>
@@ -986,7 +1285,7 @@
       <c r="Z3" s="13"/>
       <c r="AA3" s="13"/>
     </row>
-    <row r="4" ht="21.75" customHeight="1">
+    <row r="4" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4" s="7"/>
       <c r="C4" s="14"/>
@@ -995,10 +1294,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="20">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G4" s="21">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>12</v>
@@ -1023,7 +1322,7 @@
       <c r="Z4" s="13"/>
       <c r="AA4" s="13"/>
     </row>
-    <row r="5" ht="21.75" customHeight="1">
+    <row r="5" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
       <c r="B5" s="7"/>
       <c r="C5" s="14"/>
@@ -1032,10 +1331,10 @@
         <v>13</v>
       </c>
       <c r="F5" s="20">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="21">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="23" t="s">
         <v>14</v>
@@ -1060,7 +1359,7 @@
       <c r="Z5" s="13"/>
       <c r="AA5" s="13"/>
     </row>
-    <row r="6" ht="21.75" customHeight="1">
+    <row r="6" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="7"/>
       <c r="C6" s="14"/>
@@ -1069,10 +1368,10 @@
         <v>15</v>
       </c>
       <c r="F6" s="20">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="21">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>16</v>
@@ -1097,7 +1396,7 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
     </row>
-    <row r="7" ht="21.75" customHeight="1">
+    <row r="7" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="7"/>
       <c r="C7" s="14"/>
@@ -1106,10 +1405,10 @@
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="20">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H7" s="25" t="s">
         <v>18</v>
@@ -1134,9 +1433,9 @@
       <c r="Z7" s="13"/>
       <c r="AA7" s="13"/>
     </row>
-    <row r="8" ht="21.75" customHeight="1">
+    <row r="8" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
-        <v>42664.0</v>
+        <v>42664</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>19</v>
@@ -1167,7 +1466,7 @@
       <c r="Z8" s="32"/>
       <c r="AA8" s="32"/>
     </row>
-    <row r="9" ht="21.75" customHeight="1">
+    <row r="9" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="33"/>
       <c r="B9" s="7"/>
       <c r="C9" s="34" t="s">
@@ -1198,7 +1497,7 @@
       <c r="Z9" s="13"/>
       <c r="AA9" s="13"/>
     </row>
-    <row r="10" ht="21.75" customHeight="1">
+    <row r="10" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="7"/>
       <c r="C10" s="14"/>
@@ -1210,7 +1509,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="21">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -1233,7 +1532,7 @@
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
     </row>
-    <row r="11" ht="21.75" customHeight="1">
+    <row r="11" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
       <c r="B11" s="7"/>
       <c r="C11" s="14"/>
@@ -1242,10 +1541,10 @@
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="20">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G11" s="21">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -1268,7 +1567,7 @@
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
     </row>
-    <row r="12" ht="21.75" customHeight="1">
+    <row r="12" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="7"/>
       <c r="C12" s="14"/>
@@ -1277,10 +1576,10 @@
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="20">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -1303,7 +1602,7 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="13"/>
     </row>
-    <row r="13" ht="21.75" customHeight="1">
+    <row r="13" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="33"/>
       <c r="B13" s="7"/>
       <c r="C13" s="34" t="s">
@@ -1334,7 +1633,7 @@
       <c r="Z13" s="13"/>
       <c r="AA13" s="13"/>
     </row>
-    <row r="14" ht="21.75" customHeight="1">
+    <row r="14" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="7"/>
       <c r="C14" s="14"/>
@@ -1343,10 +1642,10 @@
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="39">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="40">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -1369,7 +1668,7 @@
       <c r="Z14" s="13"/>
       <c r="AA14" s="13"/>
     </row>
-    <row r="15" ht="21.75" customHeight="1">
+    <row r="15" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
       <c r="B15" s="7"/>
       <c r="C15" s="14"/>
@@ -1378,10 +1677,10 @@
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="39">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G15" s="40">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -1404,7 +1703,7 @@
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
     </row>
-    <row r="16" ht="21.75" customHeight="1">
+    <row r="16" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
       <c r="B16" s="7"/>
       <c r="C16" s="14"/>
@@ -1435,7 +1734,7 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="13"/>
     </row>
-    <row r="17" ht="21.75" customHeight="1">
+    <row r="17" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
       <c r="B17" s="7"/>
       <c r="C17" s="14"/>
@@ -1444,10 +1743,10 @@
         <v>29</v>
       </c>
       <c r="F17" s="41">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G17" s="42">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -1470,7 +1769,7 @@
       <c r="Z17" s="13"/>
       <c r="AA17" s="13"/>
     </row>
-    <row r="18" ht="21.75" customHeight="1">
+    <row r="18" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
       <c r="B18" s="7"/>
       <c r="C18" s="14"/>
@@ -1479,10 +1778,10 @@
         <v>30</v>
       </c>
       <c r="F18" s="41">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G18" s="43">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -1505,7 +1804,7 @@
       <c r="Z18" s="13"/>
       <c r="AA18" s="13"/>
     </row>
-    <row r="19" ht="21.75" customHeight="1">
+    <row r="19" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
       <c r="B19" s="7"/>
       <c r="C19" s="14"/>
@@ -1536,7 +1835,7 @@
       <c r="Z19" s="13"/>
       <c r="AA19" s="13"/>
     </row>
-    <row r="20" ht="21.75" customHeight="1">
+    <row r="20" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
       <c r="B20" s="7"/>
       <c r="C20" s="14"/>
@@ -1545,10 +1844,10 @@
         <v>32</v>
       </c>
       <c r="F20" s="39">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G20" s="40">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
@@ -1571,7 +1870,7 @@
       <c r="Z20" s="13"/>
       <c r="AA20" s="13"/>
     </row>
-    <row r="21" ht="21.75" customHeight="1">
+    <row r="21" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
       <c r="B21" s="7"/>
       <c r="C21" s="14"/>
@@ -1580,10 +1879,10 @@
         <v>33</v>
       </c>
       <c r="F21" s="39">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G21" s="40">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
@@ -1606,7 +1905,7 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
     </row>
-    <row r="22" ht="21.75" customHeight="1">
+    <row r="22" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
       <c r="B22" s="7"/>
       <c r="C22" s="14"/>
@@ -1615,10 +1914,10 @@
         <v>34</v>
       </c>
       <c r="F22" s="39">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G22" s="40">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -1641,7 +1940,7 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
     </row>
-    <row r="23" ht="21.75" customHeight="1">
+    <row r="23" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
       <c r="B23" s="7"/>
       <c r="C23" s="14"/>
@@ -1650,10 +1949,10 @@
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="41">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G23" s="43">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -1676,9 +1975,9 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
     </row>
-    <row r="24" ht="21.75" customHeight="1">
+    <row r="24" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="26">
-        <v>42669.0</v>
+        <v>42669</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>36</v>
@@ -1709,7 +2008,7 @@
       <c r="Z24" s="32"/>
       <c r="AA24" s="32"/>
     </row>
-    <row r="25" ht="21.75" customHeight="1">
+    <row r="25" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
       <c r="B25" s="7"/>
       <c r="C25" s="14"/>
@@ -1740,7 +2039,7 @@
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
     </row>
-    <row r="26" ht="21.75" customHeight="1">
+    <row r="26" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
       <c r="B26" s="7"/>
       <c r="C26" s="14"/>
@@ -1749,10 +2048,10 @@
         <v>38</v>
       </c>
       <c r="F26" s="39">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G26" s="40">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -1775,7 +2074,7 @@
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
     </row>
-    <row r="27" ht="21.75" customHeight="1">
+    <row r="27" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
       <c r="B27" s="7"/>
       <c r="C27" s="14"/>
@@ -1784,10 +2083,10 @@
         <v>39</v>
       </c>
       <c r="F27" s="39">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G27" s="40">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -1810,7 +2109,7 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
     </row>
-    <row r="28" ht="21.75" customHeight="1">
+    <row r="28" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="33"/>
       <c r="B28" s="7"/>
       <c r="C28" s="14"/>
@@ -1841,7 +2140,7 @@
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>
     </row>
-    <row r="29" ht="21.75" customHeight="1">
+    <row r="29" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
       <c r="B29" s="7"/>
       <c r="C29" s="14"/>
@@ -1850,10 +2149,10 @@
         <v>41</v>
       </c>
       <c r="F29" s="39">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G29" s="40">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
@@ -1876,7 +2175,7 @@
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
     </row>
-    <row r="30" ht="21.75" customHeight="1">
+    <row r="30" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
       <c r="B30" s="7"/>
       <c r="C30" s="14"/>
@@ -1885,10 +2184,10 @@
         <v>42</v>
       </c>
       <c r="F30" s="20">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G30" s="21">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
@@ -1911,7 +2210,7 @@
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
     </row>
-    <row r="31" ht="21.75" customHeight="1">
+    <row r="31" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
       <c r="B31" s="7"/>
       <c r="C31" s="14"/>
@@ -1942,7 +2241,7 @@
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
     </row>
-    <row r="32" ht="21.75" customHeight="1">
+    <row r="32" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
       <c r="B32" s="7"/>
       <c r="C32" s="14"/>
@@ -1951,10 +2250,10 @@
         <v>44</v>
       </c>
       <c r="F32" s="41">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G32" s="43">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
@@ -1977,7 +2276,7 @@
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
     </row>
-    <row r="33" ht="21.75" customHeight="1">
+    <row r="33" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
       <c r="B33" s="7"/>
       <c r="C33" s="14"/>
@@ -1986,10 +2285,10 @@
         <v>45</v>
       </c>
       <c r="F33" s="41">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G33" s="43">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
@@ -2012,7 +2311,7 @@
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
     </row>
-    <row r="34" ht="21.75" customHeight="1">
+    <row r="34" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="19"/>
       <c r="B34" s="7"/>
       <c r="C34" s="14"/>
@@ -2021,10 +2320,10 @@
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="41">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G34" s="43">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
@@ -2047,7 +2346,7 @@
       <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
     </row>
-    <row r="35" ht="21.75" customHeight="1">
+    <row r="35" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="19"/>
       <c r="B35" s="7"/>
       <c r="C35" s="14"/>
@@ -2078,7 +2377,7 @@
       <c r="Z35" s="13"/>
       <c r="AA35" s="13"/>
     </row>
-    <row r="36" ht="21.75" customHeight="1">
+    <row r="36" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="19"/>
       <c r="B36" s="7"/>
       <c r="C36" s="14"/>
@@ -2087,10 +2386,10 @@
         <v>48</v>
       </c>
       <c r="F36" s="41">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G36" s="43">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
@@ -2113,7 +2412,7 @@
       <c r="Z36" s="13"/>
       <c r="AA36" s="13"/>
     </row>
-    <row r="37" ht="21.75" customHeight="1">
+    <row r="37" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="19"/>
       <c r="B37" s="7"/>
       <c r="C37" s="14"/>
@@ -2122,10 +2421,10 @@
         <v>49</v>
       </c>
       <c r="F37" s="41">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G37" s="43">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
@@ -2148,9 +2447,9 @@
       <c r="Z37" s="13"/>
       <c r="AA37" s="13"/>
     </row>
-    <row r="38" ht="21.75" customHeight="1">
+    <row r="38" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="26">
-        <v>42672.0</v>
+        <v>42672</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>50</v>
@@ -2181,7 +2480,7 @@
       <c r="Z38" s="32"/>
       <c r="AA38" s="32"/>
     </row>
-    <row r="39" ht="21.75" customHeight="1">
+    <row r="39" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="19"/>
       <c r="B39" s="7"/>
       <c r="C39" s="34" t="s">
@@ -2212,7 +2511,7 @@
       <c r="Z39" s="13"/>
       <c r="AA39" s="13"/>
     </row>
-    <row r="40" ht="21.75" customHeight="1">
+    <row r="40" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="19"/>
       <c r="B40" s="7"/>
       <c r="C40" s="14"/>
@@ -2243,7 +2542,7 @@
       <c r="Z40" s="13"/>
       <c r="AA40" s="13"/>
     </row>
-    <row r="41" ht="21.75" customHeight="1">
+    <row r="41" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="19"/>
       <c r="B41" s="7"/>
       <c r="C41" s="14"/>
@@ -2252,10 +2551,10 @@
         <v>53</v>
       </c>
       <c r="F41" s="41">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G41" s="43">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
@@ -2278,7 +2577,7 @@
       <c r="Z41" s="13"/>
       <c r="AA41" s="13"/>
     </row>
-    <row r="42" ht="21.75" customHeight="1">
+    <row r="42" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="19"/>
       <c r="B42" s="7"/>
       <c r="C42" s="14"/>
@@ -2287,10 +2586,10 @@
         <v>54</v>
       </c>
       <c r="F42" s="41">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G42" s="43">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
@@ -2313,7 +2612,7 @@
       <c r="Z42" s="13"/>
       <c r="AA42" s="13"/>
     </row>
-    <row r="43" ht="21.75" customHeight="1">
+    <row r="43" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="19"/>
       <c r="B43" s="7"/>
       <c r="C43" s="14"/>
@@ -2322,10 +2621,10 @@
         <v>55</v>
       </c>
       <c r="F43" s="20">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G43" s="21">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
@@ -2348,7 +2647,7 @@
       <c r="Z43" s="13"/>
       <c r="AA43" s="13"/>
     </row>
-    <row r="44" ht="21.75" customHeight="1">
+    <row r="44" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="19"/>
       <c r="B44" s="7"/>
       <c r="C44" s="14"/>
@@ -2379,7 +2678,7 @@
       <c r="Z44" s="13"/>
       <c r="AA44" s="13"/>
     </row>
-    <row r="45" ht="21.75" customHeight="1">
+    <row r="45" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="19"/>
       <c r="B45" s="7"/>
       <c r="C45" s="14"/>
@@ -2388,10 +2687,10 @@
         <v>57</v>
       </c>
       <c r="F45" s="41">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G45" s="43">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
@@ -2414,7 +2713,7 @@
       <c r="Z45" s="13"/>
       <c r="AA45" s="13"/>
     </row>
-    <row r="46" ht="21.75" customHeight="1">
+    <row r="46" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="19"/>
       <c r="B46" s="7"/>
       <c r="C46" s="14"/>
@@ -2423,10 +2722,10 @@
         <v>54</v>
       </c>
       <c r="F46" s="41">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G46" s="43">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
@@ -2449,7 +2748,7 @@
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
     </row>
-    <row r="47" ht="21.75" customHeight="1">
+    <row r="47" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
       <c r="B47" s="7"/>
       <c r="C47" s="14"/>
@@ -2458,10 +2757,10 @@
         <v>58</v>
       </c>
       <c r="F47" s="39">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G47" s="40">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
@@ -2484,7 +2783,7 @@
       <c r="Z47" s="13"/>
       <c r="AA47" s="13"/>
     </row>
-    <row r="48" ht="21.75" customHeight="1">
+    <row r="48" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
       <c r="B48" s="7"/>
       <c r="C48" s="14"/>
@@ -2515,7 +2814,7 @@
       <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
     </row>
-    <row r="49" ht="21.75" customHeight="1">
+    <row r="49" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="B49" s="7"/>
       <c r="C49" s="14"/>
@@ -2524,10 +2823,10 @@
         <v>57</v>
       </c>
       <c r="F49" s="41">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G49" s="43">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
@@ -2550,7 +2849,7 @@
       <c r="Z49" s="13"/>
       <c r="AA49" s="13"/>
     </row>
-    <row r="50" ht="21.75" customHeight="1">
+    <row r="50" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
       <c r="B50" s="7"/>
       <c r="C50" s="14"/>
@@ -2559,10 +2858,10 @@
         <v>60</v>
       </c>
       <c r="F50" s="41">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G50" s="43">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
@@ -2585,7 +2884,7 @@
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
     </row>
-    <row r="51" ht="21.75" customHeight="1">
+    <row r="51" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
       <c r="B51" s="7"/>
       <c r="C51" s="14"/>
@@ -2594,10 +2893,10 @@
         <v>58</v>
       </c>
       <c r="F51" s="39">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G51" s="40">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
@@ -2620,7 +2919,7 @@
       <c r="Z51" s="13"/>
       <c r="AA51" s="13"/>
     </row>
-    <row r="52" ht="21.75" customHeight="1">
+    <row r="52" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="47"/>
       <c r="B52" s="7"/>
       <c r="C52" s="14"/>
@@ -2629,10 +2928,10 @@
       </c>
       <c r="E52" s="35"/>
       <c r="F52" s="41">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G52" s="43">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="13"/>
@@ -2655,7 +2954,7 @@
       <c r="Z52" s="13"/>
       <c r="AA52" s="13"/>
     </row>
-    <row r="53" ht="21.75" customHeight="1">
+    <row r="53" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="47"/>
       <c r="B53" s="7"/>
       <c r="C53" s="34" t="s">
@@ -2686,7 +2985,7 @@
       <c r="Z53" s="13"/>
       <c r="AA53" s="13"/>
     </row>
-    <row r="54" ht="21.75" customHeight="1">
+    <row r="54" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="47"/>
       <c r="B54" s="7"/>
       <c r="C54" s="13"/>
@@ -2695,10 +2994,10 @@
       </c>
       <c r="E54" s="35"/>
       <c r="F54" s="39">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G54" s="40">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="13"/>
@@ -2721,9 +3020,9 @@
       <c r="Z54" s="13"/>
       <c r="AA54" s="13"/>
     </row>
-    <row r="55" ht="21.75" customHeight="1">
+    <row r="55" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="48">
-        <v>42678.0</v>
+        <v>42678</v>
       </c>
       <c r="B55" s="49" t="s">
         <v>63</v>
@@ -2754,7 +3053,7 @@
       <c r="Z55" s="32"/>
       <c r="AA55" s="32"/>
     </row>
-    <row r="56" ht="21.75" customHeight="1">
+    <row r="56" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="47"/>
       <c r="B56" s="7"/>
       <c r="C56" s="34" t="s">
@@ -2785,7 +3084,7 @@
       <c r="Z56" s="13"/>
       <c r="AA56" s="13"/>
     </row>
-    <row r="57" ht="21.75" customHeight="1">
+    <row r="57" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="47"/>
       <c r="B57" s="7"/>
       <c r="C57" s="34"/>
@@ -2794,10 +3093,10 @@
       </c>
       <c r="E57" s="13"/>
       <c r="F57" s="20">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G57" s="21">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H57" s="15"/>
       <c r="I57" s="13"/>
@@ -2820,7 +3119,7 @@
       <c r="Z57" s="13"/>
       <c r="AA57" s="13"/>
     </row>
-    <row r="58" ht="21.75" customHeight="1">
+    <row r="58" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="47"/>
       <c r="B58" s="7"/>
       <c r="C58" s="34" t="s">
@@ -2851,7 +3150,7 @@
       <c r="Z58" s="13"/>
       <c r="AA58" s="13"/>
     </row>
-    <row r="59" ht="21.75" customHeight="1">
+    <row r="59" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="47"/>
       <c r="B59" s="7"/>
       <c r="C59" s="34"/>
@@ -2882,7 +3181,7 @@
       <c r="Z59" s="13"/>
       <c r="AA59" s="13"/>
     </row>
-    <row r="60" ht="21.75" customHeight="1">
+    <row r="60" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="47"/>
       <c r="B60" s="7"/>
       <c r="C60" s="34"/>
@@ -2891,9 +3190,11 @@
         <v>67</v>
       </c>
       <c r="F60" s="39">
-        <v>3.0</v>
-      </c>
-      <c r="G60" s="55"/>
+        <v>3</v>
+      </c>
+      <c r="G60" s="55">
+        <v>2</v>
+      </c>
       <c r="H60" s="15"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
@@ -2915,7 +3216,7 @@
       <c r="Z60" s="13"/>
       <c r="AA60" s="13"/>
     </row>
-    <row r="61" ht="21.75" customHeight="1">
+    <row r="61" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="47"/>
       <c r="B61" s="7"/>
       <c r="C61" s="34"/>
@@ -2924,7 +3225,7 @@
         <v>68</v>
       </c>
       <c r="F61" s="41">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G61" s="56"/>
       <c r="H61" s="15"/>
@@ -2948,7 +3249,7 @@
       <c r="Z61" s="13"/>
       <c r="AA61" s="13"/>
     </row>
-    <row r="62" ht="21.75" customHeight="1">
+    <row r="62" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="47"/>
       <c r="B62" s="7"/>
       <c r="C62" s="34"/>
@@ -2957,7 +3258,7 @@
         <v>69</v>
       </c>
       <c r="F62" s="39">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G62" s="55"/>
       <c r="H62" s="15"/>
@@ -2981,7 +3282,7 @@
       <c r="Z62" s="13"/>
       <c r="AA62" s="13"/>
     </row>
-    <row r="63" ht="21.75" customHeight="1">
+    <row r="63" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="47"/>
       <c r="B63" s="7"/>
       <c r="C63" s="34"/>
@@ -2990,7 +3291,7 @@
         <v>70</v>
       </c>
       <c r="F63" s="41">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G63" s="56"/>
       <c r="H63" s="15"/>
@@ -3014,7 +3315,7 @@
       <c r="Z63" s="13"/>
       <c r="AA63" s="13"/>
     </row>
-    <row r="64" ht="21.75" customHeight="1">
+    <row r="64" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="47"/>
       <c r="B64" s="7"/>
       <c r="C64" s="34"/>
@@ -3023,7 +3324,7 @@
         <v>71</v>
       </c>
       <c r="F64" s="39">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G64" s="55"/>
       <c r="H64" s="15"/>
@@ -3047,7 +3348,7 @@
       <c r="Z64" s="13"/>
       <c r="AA64" s="13"/>
     </row>
-    <row r="65" ht="21.75" customHeight="1">
+    <row r="65" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="47"/>
       <c r="B65" s="7"/>
       <c r="C65" s="34"/>
@@ -3056,7 +3357,7 @@
         <v>72</v>
       </c>
       <c r="F65" s="20">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G65" s="57"/>
       <c r="H65" s="15"/>
@@ -3080,7 +3381,7 @@
       <c r="Z65" s="13"/>
       <c r="AA65" s="13"/>
     </row>
-    <row r="66" ht="21.75" customHeight="1">
+    <row r="66" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="47"/>
       <c r="B66" s="7"/>
       <c r="C66" s="34"/>
@@ -3089,7 +3390,7 @@
         <v>73</v>
       </c>
       <c r="F66" s="20">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G66" s="57"/>
       <c r="H66" s="15"/>
@@ -3113,9 +3414,9 @@
       <c r="Z66" s="13"/>
       <c r="AA66" s="13"/>
     </row>
-    <row r="67" ht="21.75" customHeight="1">
+    <row r="67" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="58">
-        <v>42692.0</v>
+        <v>42692</v>
       </c>
       <c r="B67" s="27" t="s">
         <v>74</v>
@@ -3146,7 +3447,7 @@
       <c r="Z67" s="32"/>
       <c r="AA67" s="32"/>
     </row>
-    <row r="68" ht="21.75" customHeight="1">
+    <row r="68" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="47"/>
       <c r="B68" s="7"/>
       <c r="C68" s="34" t="s">
@@ -3177,7 +3478,7 @@
       <c r="Z68" s="13"/>
       <c r="AA68" s="13"/>
     </row>
-    <row r="69" ht="21.75" customHeight="1">
+    <row r="69" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="47"/>
       <c r="B69" s="7"/>
       <c r="C69" s="34"/>
@@ -3186,7 +3487,7 @@
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="35">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G69" s="36"/>
       <c r="H69" s="15"/>
@@ -3210,7 +3511,7 @@
       <c r="Z69" s="13"/>
       <c r="AA69" s="13"/>
     </row>
-    <row r="70" ht="21.75" customHeight="1">
+    <row r="70" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="47"/>
       <c r="B70" s="7"/>
       <c r="C70" s="34" t="s">
@@ -3241,7 +3542,7 @@
       <c r="Z70" s="13"/>
       <c r="AA70" s="13"/>
     </row>
-    <row r="71" ht="21.75" customHeight="1">
+    <row r="71" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="47"/>
       <c r="B71" s="7"/>
       <c r="C71" s="34"/>
@@ -3272,7 +3573,7 @@
       <c r="Z71" s="13"/>
       <c r="AA71" s="13"/>
     </row>
-    <row r="72" ht="21.75" customHeight="1">
+    <row r="72" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="47"/>
       <c r="B72" s="7"/>
       <c r="C72" s="34"/>
@@ -3280,7 +3581,7 @@
         <v>77</v>
       </c>
       <c r="F72" s="35">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G72" s="36"/>
       <c r="H72" s="15"/>
@@ -3304,7 +3605,7 @@
       <c r="Z72" s="13"/>
       <c r="AA72" s="13"/>
     </row>
-    <row r="73" ht="21.75" customHeight="1">
+    <row r="73" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="47"/>
       <c r="B73" s="7"/>
       <c r="C73" s="34"/>
@@ -3312,7 +3613,7 @@
         <v>78</v>
       </c>
       <c r="F73" s="35">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G73" s="36"/>
       <c r="H73" s="15"/>
@@ -3336,7 +3637,7 @@
       <c r="Z73" s="13"/>
       <c r="AA73" s="13"/>
     </row>
-    <row r="74" ht="21.75" customHeight="1">
+    <row r="74" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="47"/>
       <c r="B74" s="7"/>
       <c r="C74" s="13"/>
@@ -3344,7 +3645,7 @@
         <v>79</v>
       </c>
       <c r="F74" s="35">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="G74" s="36"/>
       <c r="H74" s="15"/>
@@ -3368,7 +3669,7 @@
       <c r="Z74" s="13"/>
       <c r="AA74" s="13"/>
     </row>
-    <row r="75" ht="21.75" customHeight="1">
+    <row r="75" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="47"/>
       <c r="B75" s="7"/>
       <c r="C75" s="34"/>
@@ -3376,7 +3677,7 @@
         <v>15</v>
       </c>
       <c r="F75" s="35">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G75" s="36"/>
       <c r="H75" s="15"/>
@@ -3400,7 +3701,7 @@
       <c r="Z75" s="13"/>
       <c r="AA75" s="13"/>
     </row>
-    <row r="76" ht="21.75" customHeight="1">
+    <row r="76" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="47"/>
       <c r="B76" s="7"/>
       <c r="C76" s="14"/>
@@ -3408,7 +3709,7 @@
         <v>80</v>
       </c>
       <c r="F76" s="35">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G76" s="36"/>
       <c r="H76" s="15"/>
@@ -3432,7 +3733,7 @@
       <c r="Z76" s="13"/>
       <c r="AA76" s="13"/>
     </row>
-    <row r="77" ht="21.75" customHeight="1">
+    <row r="77" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="47"/>
       <c r="B77" s="7"/>
       <c r="C77" s="14"/>
@@ -3440,7 +3741,7 @@
         <v>73</v>
       </c>
       <c r="F77" s="35">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G77" s="36"/>
       <c r="H77" s="15"/>
@@ -3464,7 +3765,7 @@
       <c r="Z77" s="13"/>
       <c r="AA77" s="13"/>
     </row>
-    <row r="78" ht="21.75" customHeight="1">
+    <row r="78" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="47"/>
       <c r="B78" s="7"/>
       <c r="C78" s="14"/>
@@ -3495,7 +3796,7 @@
       <c r="Z78" s="13"/>
       <c r="AA78" s="13"/>
     </row>
-    <row r="79" ht="21.75" customHeight="1">
+    <row r="79" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="47"/>
       <c r="B79" s="7"/>
       <c r="C79" s="14"/>
@@ -3504,7 +3805,7 @@
         <v>82</v>
       </c>
       <c r="F79" s="35">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="G79" s="36"/>
       <c r="H79" s="15"/>
@@ -3528,7 +3829,7 @@
       <c r="Z79" s="13"/>
       <c r="AA79" s="13"/>
     </row>
-    <row r="80" ht="21.75" customHeight="1">
+    <row r="80" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="47"/>
       <c r="B80" s="7"/>
       <c r="C80" s="14"/>
@@ -3537,7 +3838,7 @@
         <v>83</v>
       </c>
       <c r="F80" s="35">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G80" s="36"/>
       <c r="H80" s="15"/>
@@ -3561,7 +3862,7 @@
       <c r="Z80" s="13"/>
       <c r="AA80" s="13"/>
     </row>
-    <row r="81" ht="21.75" customHeight="1">
+    <row r="81" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="47"/>
       <c r="B81" s="7"/>
       <c r="C81" s="14"/>
@@ -3592,7 +3893,7 @@
       <c r="Z81" s="13"/>
       <c r="AA81" s="13"/>
     </row>
-    <row r="82" ht="21.75" customHeight="1">
+    <row r="82" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="47"/>
       <c r="B82" s="7"/>
       <c r="C82" s="14"/>
@@ -3601,7 +3902,7 @@
         <v>85</v>
       </c>
       <c r="F82" s="35">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G82" s="36"/>
       <c r="H82" s="15"/>
@@ -3625,7 +3926,7 @@
       <c r="Z82" s="13"/>
       <c r="AA82" s="13"/>
     </row>
-    <row r="83" ht="21.75" customHeight="1">
+    <row r="83" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="47"/>
       <c r="B83" s="7"/>
       <c r="C83" s="14"/>
@@ -3634,7 +3935,7 @@
         <v>86</v>
       </c>
       <c r="F83" s="35">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G83" s="36"/>
       <c r="H83" s="15"/>
@@ -3658,9 +3959,9 @@
       <c r="Z83" s="13"/>
       <c r="AA83" s="13"/>
     </row>
-    <row r="84" ht="21.75" customHeight="1">
+    <row r="84" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="26">
-        <v>42697.0</v>
+        <v>42697</v>
       </c>
       <c r="B84" s="27" t="s">
         <v>87</v>
@@ -3691,7 +3992,7 @@
       <c r="Z84" s="32"/>
       <c r="AA84" s="32"/>
     </row>
-    <row r="85" ht="21.75" customHeight="1">
+    <row r="85" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="47"/>
       <c r="B85" s="7"/>
       <c r="C85" s="34" t="s">
@@ -3722,7 +4023,7 @@
       <c r="Z85" s="13"/>
       <c r="AA85" s="13"/>
     </row>
-    <row r="86" ht="21.75" customHeight="1">
+    <row r="86" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="47"/>
       <c r="B86" s="7"/>
       <c r="C86" s="34"/>
@@ -3753,7 +4054,7 @@
       <c r="Z86" s="13"/>
       <c r="AA86" s="13"/>
     </row>
-    <row r="87" ht="21.75" customHeight="1">
+    <row r="87" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="47"/>
       <c r="B87" s="7"/>
       <c r="C87" s="34"/>
@@ -3762,7 +4063,7 @@
         <v>89</v>
       </c>
       <c r="F87" s="35">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G87" s="36"/>
       <c r="H87" s="15"/>
@@ -3786,7 +4087,7 @@
       <c r="Z87" s="13"/>
       <c r="AA87" s="13"/>
     </row>
-    <row r="88" ht="21.75" customHeight="1">
+    <row r="88" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="47"/>
       <c r="B88" s="7"/>
       <c r="C88" s="34"/>
@@ -3795,7 +4096,7 @@
         <v>90</v>
       </c>
       <c r="F88" s="35">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G88" s="36"/>
       <c r="H88" s="15"/>
@@ -3819,7 +4120,7 @@
       <c r="Z88" s="13"/>
       <c r="AA88" s="13"/>
     </row>
-    <row r="89" ht="21.75" customHeight="1">
+    <row r="89" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="47"/>
       <c r="B89" s="7"/>
       <c r="C89" s="34"/>
@@ -3828,7 +4129,7 @@
         <v>91</v>
       </c>
       <c r="F89" s="35">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G89" s="36"/>
       <c r="H89" s="15"/>
@@ -3852,7 +4153,7 @@
       <c r="Z89" s="13"/>
       <c r="AA89" s="13"/>
     </row>
-    <row r="90" ht="21.75" customHeight="1">
+    <row r="90" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="47"/>
       <c r="B90" s="7"/>
       <c r="C90" s="34"/>
@@ -3883,7 +4184,7 @@
       <c r="Z90" s="13"/>
       <c r="AA90" s="13"/>
     </row>
-    <row r="91" ht="21.75" customHeight="1">
+    <row r="91" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="47"/>
       <c r="B91" s="7"/>
       <c r="C91" s="34"/>
@@ -3892,7 +4193,7 @@
         <v>93</v>
       </c>
       <c r="F91" s="35">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="G91" s="36"/>
       <c r="H91" s="15"/>
@@ -3916,7 +4217,7 @@
       <c r="Z91" s="13"/>
       <c r="AA91" s="13"/>
     </row>
-    <row r="92" ht="21.75" customHeight="1">
+    <row r="92" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="47"/>
       <c r="B92" s="7"/>
       <c r="C92" s="34"/>
@@ -3925,7 +4226,7 @@
         <v>94</v>
       </c>
       <c r="F92" s="35">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G92" s="36"/>
       <c r="H92" s="15"/>
@@ -3949,7 +4250,7 @@
       <c r="Z92" s="13"/>
       <c r="AA92" s="13"/>
     </row>
-    <row r="93" ht="21.75" customHeight="1">
+    <row r="93" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="47"/>
       <c r="B93" s="7"/>
       <c r="C93" s="34"/>
@@ -3958,7 +4259,7 @@
         <v>95</v>
       </c>
       <c r="F93" s="35">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G93" s="36"/>
       <c r="H93" s="15"/>
@@ -3982,7 +4283,7 @@
       <c r="Z93" s="13"/>
       <c r="AA93" s="13"/>
     </row>
-    <row r="94" ht="21.75" customHeight="1">
+    <row r="94" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="47"/>
       <c r="B94" s="7"/>
       <c r="C94" s="34"/>
@@ -3991,7 +4292,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="35">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G94" s="36"/>
       <c r="H94" s="15"/>
@@ -4015,7 +4316,7 @@
       <c r="Z94" s="13"/>
       <c r="AA94" s="13"/>
     </row>
-    <row r="95" ht="21.75" customHeight="1">
+    <row r="95" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="47"/>
       <c r="B95" s="7"/>
       <c r="C95" s="34"/>
@@ -4046,7 +4347,7 @@
       <c r="Z95" s="13"/>
       <c r="AA95" s="13"/>
     </row>
-    <row r="96" ht="21.75" customHeight="1">
+    <row r="96" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="47"/>
       <c r="B96" s="7"/>
       <c r="C96" s="34"/>
@@ -4077,7 +4378,7 @@
       <c r="Z96" s="13"/>
       <c r="AA96" s="13"/>
     </row>
-    <row r="97" ht="21.75" customHeight="1">
+    <row r="97" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="47"/>
       <c r="B97" s="7"/>
       <c r="C97" s="34" t="s">
@@ -4108,7 +4409,7 @@
       <c r="Z97" s="13"/>
       <c r="AA97" s="13"/>
     </row>
-    <row r="98" ht="21.75" customHeight="1">
+    <row r="98" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="47"/>
       <c r="B98" s="7"/>
       <c r="C98" s="14"/>
@@ -4117,7 +4418,7 @@
       </c>
       <c r="E98" s="13"/>
       <c r="F98" s="35">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="G98" s="36"/>
       <c r="H98" s="15"/>
@@ -4141,7 +4442,7 @@
       <c r="Z98" s="13"/>
       <c r="AA98" s="13"/>
     </row>
-    <row r="99" ht="21.75" customHeight="1">
+    <row r="99" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="47"/>
       <c r="B99" s="7"/>
       <c r="C99" s="14"/>
@@ -4150,7 +4451,7 @@
       </c>
       <c r="E99" s="13"/>
       <c r="F99" s="35">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="G99" s="36"/>
       <c r="H99" s="15"/>
@@ -4174,7 +4475,7 @@
       <c r="Z99" s="13"/>
       <c r="AA99" s="13"/>
     </row>
-    <row r="100" ht="21.75" customHeight="1">
+    <row r="100" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="47"/>
       <c r="B100" s="7"/>
       <c r="C100" s="34" t="s">
@@ -4205,7 +4506,7 @@
       <c r="Z100" s="13"/>
       <c r="AA100" s="13"/>
     </row>
-    <row r="101" ht="21.75" customHeight="1">
+    <row r="101" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="47"/>
       <c r="B101" s="7"/>
       <c r="C101" s="14"/>
@@ -4214,7 +4515,7 @@
       </c>
       <c r="E101" s="13"/>
       <c r="F101" s="35">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G101" s="36"/>
       <c r="H101" s="15"/>
@@ -4238,9 +4539,9 @@
       <c r="Z101" s="13"/>
       <c r="AA101" s="13"/>
     </row>
-    <row r="102" ht="21.75" customHeight="1">
+    <row r="102" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="26">
-        <v>42703.0</v>
+        <v>42703</v>
       </c>
       <c r="B102" s="27" t="s">
         <v>101</v>
@@ -4271,7 +4572,7 @@
       <c r="Z102" s="32"/>
       <c r="AA102" s="32"/>
     </row>
-    <row r="103" ht="21.75" customHeight="1">
+    <row r="103" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="47"/>
       <c r="B103" s="7"/>
       <c r="C103" s="34" t="s">
@@ -4302,7 +4603,7 @@
       <c r="Z103" s="13"/>
       <c r="AA103" s="13"/>
     </row>
-    <row r="104" ht="21.75" customHeight="1">
+    <row r="104" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="47"/>
       <c r="B104" s="7"/>
       <c r="C104" s="14"/>
@@ -4311,7 +4612,7 @@
       </c>
       <c r="E104" s="13"/>
       <c r="F104" s="35">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G104" s="36"/>
       <c r="H104" s="15"/>
@@ -4335,7 +4636,7 @@
       <c r="Z104" s="13"/>
       <c r="AA104" s="13"/>
     </row>
-    <row r="105" ht="21.75" customHeight="1">
+    <row r="105" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="47"/>
       <c r="B105" s="7"/>
       <c r="C105" s="14"/>
@@ -4344,7 +4645,7 @@
       </c>
       <c r="E105" s="13"/>
       <c r="F105" s="35">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G105" s="36"/>
       <c r="H105" s="15"/>
@@ -4368,7 +4669,7 @@
       <c r="Z105" s="13"/>
       <c r="AA105" s="13"/>
     </row>
-    <row r="106" ht="21.75" customHeight="1">
+    <row r="106" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="47"/>
       <c r="B106" s="7"/>
       <c r="C106" s="34" t="s">
@@ -4399,7 +4700,7 @@
       <c r="Z106" s="13"/>
       <c r="AA106" s="13"/>
     </row>
-    <row r="107" ht="21.75" customHeight="1">
+    <row r="107" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="47"/>
       <c r="B107" s="7"/>
       <c r="C107" s="34"/>
@@ -4408,7 +4709,7 @@
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="35">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G107" s="36"/>
       <c r="H107" s="15"/>
@@ -4432,7 +4733,7 @@
       <c r="Z107" s="13"/>
       <c r="AA107" s="13"/>
     </row>
-    <row r="108" ht="21.75" customHeight="1">
+    <row r="108" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="47"/>
       <c r="B108" s="7"/>
       <c r="C108" s="34"/>
@@ -4441,7 +4742,7 @@
       </c>
       <c r="E108" s="13"/>
       <c r="F108" s="35">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="G108" s="36"/>
       <c r="H108" s="15"/>
@@ -4465,7 +4766,7 @@
       <c r="Z108" s="13"/>
       <c r="AA108" s="13"/>
     </row>
-    <row r="109" ht="21.75" customHeight="1">
+    <row r="109" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="47"/>
       <c r="B109" s="7"/>
       <c r="C109" s="34"/>
@@ -4474,7 +4775,7 @@
       </c>
       <c r="E109" s="13"/>
       <c r="F109" s="35">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G109" s="36"/>
       <c r="H109" s="15"/>
@@ -4498,9 +4799,9 @@
       <c r="Z109" s="13"/>
       <c r="AA109" s="13"/>
     </row>
-    <row r="110" ht="21.75" customHeight="1">
+    <row r="110" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="60">
-        <v>42709.0</v>
+        <v>42709</v>
       </c>
       <c r="B110" s="49" t="s">
         <v>105</v>
@@ -4531,7 +4832,7 @@
       <c r="Z110" s="32"/>
       <c r="AA110" s="32"/>
     </row>
-    <row r="111" ht="21.75" customHeight="1">
+    <row r="111" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="47"/>
       <c r="B111" s="7"/>
       <c r="C111" s="34" t="s">
@@ -4562,7 +4863,7 @@
       <c r="Z111" s="13"/>
       <c r="AA111" s="13"/>
     </row>
-    <row r="112" ht="21.75" customHeight="1">
+    <row r="112" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="47"/>
       <c r="B112" s="7"/>
       <c r="C112" s="14"/>
@@ -4571,7 +4872,7 @@
       </c>
       <c r="E112" s="13"/>
       <c r="F112" s="35">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G112" s="36"/>
       <c r="H112" s="13"/>
@@ -4595,7 +4896,7 @@
       <c r="Z112" s="13"/>
       <c r="AA112" s="13"/>
     </row>
-    <row r="113" ht="21.75" customHeight="1">
+    <row r="113" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="47"/>
       <c r="B113" s="7"/>
       <c r="C113" s="14"/>
@@ -4604,7 +4905,7 @@
       </c>
       <c r="E113" s="13"/>
       <c r="F113" s="35">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G113" s="36"/>
       <c r="H113" s="13"/>
@@ -4628,7 +4929,7 @@
       <c r="Z113" s="13"/>
       <c r="AA113" s="13"/>
     </row>
-    <row r="114" ht="21.75" customHeight="1">
+    <row r="114" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="19"/>
       <c r="B114" s="7"/>
       <c r="C114" s="34" t="s">
@@ -4659,7 +4960,7 @@
       <c r="Z114" s="13"/>
       <c r="AA114" s="13"/>
     </row>
-    <row r="115" ht="21.75" customHeight="1">
+    <row r="115" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="19"/>
       <c r="B115" s="7"/>
       <c r="C115" s="14"/>
@@ -4668,7 +4969,7 @@
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="35">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G115" s="36"/>
       <c r="H115" s="13"/>
@@ -4692,7 +4993,7 @@
       <c r="Z115" s="13"/>
       <c r="AA115" s="13"/>
     </row>
-    <row r="116" ht="21.75" customHeight="1">
+    <row r="116" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="47"/>
       <c r="B116" s="7"/>
       <c r="C116" s="14"/>
@@ -4701,7 +5002,7 @@
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="35">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G116" s="36"/>
       <c r="H116" s="15"/>
@@ -4725,9 +5026,9 @@
       <c r="Z116" s="13"/>
       <c r="AA116" s="13"/>
     </row>
-    <row r="117" ht="21.75" customHeight="1">
+    <row r="117" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="62">
-        <v>42716.0</v>
+        <v>42716</v>
       </c>
       <c r="B117" s="63" t="s">
         <v>107</v>
@@ -4758,9 +5059,9 @@
       <c r="Z117" s="32"/>
       <c r="AA117" s="32"/>
     </row>
-    <row r="118" ht="21.75" customHeight="1">
+    <row r="118" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="26">
-        <v>42719.0</v>
+        <v>42719</v>
       </c>
       <c r="B118" s="27" t="s">
         <v>108</v>
@@ -4791,7 +5092,7 @@
       <c r="Z118" s="32"/>
       <c r="AA118" s="32"/>
     </row>
-    <row r="119" ht="21.75" customHeight="1">
+    <row r="119" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="47"/>
       <c r="B119" s="7"/>
       <c r="C119" s="34" t="s">
@@ -4822,7 +5123,7 @@
       <c r="Z119" s="13"/>
       <c r="AA119" s="13"/>
     </row>
-    <row r="120" ht="21.75" customHeight="1">
+    <row r="120" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="47"/>
       <c r="B120" s="7"/>
       <c r="C120" s="14"/>
@@ -4853,7 +5154,7 @@
       <c r="Z120" s="13"/>
       <c r="AA120" s="13"/>
     </row>
-    <row r="121" ht="21.75" customHeight="1">
+    <row r="121" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="47"/>
       <c r="B121" s="7"/>
       <c r="C121" s="14"/>
@@ -4862,7 +5163,7 @@
         <v>110</v>
       </c>
       <c r="F121" s="35">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G121" s="36"/>
       <c r="H121" s="13"/>
@@ -4886,7 +5187,7 @@
       <c r="Z121" s="13"/>
       <c r="AA121" s="13"/>
     </row>
-    <row r="122" ht="21.75" customHeight="1">
+    <row r="122" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="47"/>
       <c r="B122" s="7"/>
       <c r="C122" s="14"/>
@@ -4895,7 +5196,7 @@
         <v>111</v>
       </c>
       <c r="F122" s="35">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G122" s="36"/>
       <c r="H122" s="13"/>
@@ -4919,7 +5220,7 @@
       <c r="Z122" s="13"/>
       <c r="AA122" s="13"/>
     </row>
-    <row r="123" ht="21.75" customHeight="1">
+    <row r="123" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="47"/>
       <c r="B123" s="7"/>
       <c r="C123" s="14"/>
@@ -4928,7 +5229,7 @@
         <v>24</v>
       </c>
       <c r="F123" s="35">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G123" s="36"/>
       <c r="H123" s="13"/>
@@ -4952,7 +5253,7 @@
       <c r="Z123" s="13"/>
       <c r="AA123" s="13"/>
     </row>
-    <row r="124" ht="21.75" customHeight="1">
+    <row r="124" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="47"/>
       <c r="B124" s="7"/>
       <c r="C124" s="14"/>
@@ -4983,7 +5284,7 @@
       <c r="Z124" s="13"/>
       <c r="AA124" s="13"/>
     </row>
-    <row r="125" ht="21.75" customHeight="1">
+    <row r="125" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="47"/>
       <c r="B125" s="7"/>
       <c r="C125" s="14"/>
@@ -4992,7 +5293,7 @@
         <v>113</v>
       </c>
       <c r="F125" s="35">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G125" s="36"/>
       <c r="H125" s="13"/>
@@ -5016,7 +5317,7 @@
       <c r="Z125" s="13"/>
       <c r="AA125" s="13"/>
     </row>
-    <row r="126" ht="21.75" customHeight="1">
+    <row r="126" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="47"/>
       <c r="B126" s="7"/>
       <c r="C126" s="14"/>
@@ -5025,7 +5326,7 @@
         <v>24</v>
       </c>
       <c r="F126" s="35">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G126" s="36"/>
       <c r="H126" s="15"/>
@@ -5049,9 +5350,9 @@
       <c r="Z126" s="13"/>
       <c r="AA126" s="13"/>
     </row>
-    <row r="127" ht="21.75" customHeight="1">
+    <row r="127" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="48">
-        <v>42751.0</v>
+        <v>42751</v>
       </c>
       <c r="B127" s="49" t="s">
         <v>114</v>
@@ -5082,7 +5383,7 @@
       <c r="Z127" s="32"/>
       <c r="AA127" s="32"/>
     </row>
-    <row r="128" ht="21.75" customHeight="1">
+    <row r="128" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="47"/>
       <c r="B128" s="7"/>
       <c r="C128" s="34" t="s">
@@ -5113,7 +5414,7 @@
       <c r="Z128" s="13"/>
       <c r="AA128" s="13"/>
     </row>
-    <row r="129" ht="21.75" customHeight="1">
+    <row r="129" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="47"/>
       <c r="B129" s="7"/>
       <c r="C129" s="14"/>
@@ -5122,7 +5423,7 @@
       </c>
       <c r="E129" s="13"/>
       <c r="F129" s="35">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G129" s="36"/>
       <c r="H129" s="15"/>
@@ -5146,7 +5447,7 @@
       <c r="Z129" s="13"/>
       <c r="AA129" s="13"/>
     </row>
-    <row r="130" ht="21.75" customHeight="1">
+    <row r="130" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="47"/>
       <c r="B130" s="7"/>
       <c r="C130" s="14"/>
@@ -5177,7 +5478,7 @@
       <c r="Z130" s="13"/>
       <c r="AA130" s="13"/>
     </row>
-    <row r="131" ht="21.75" customHeight="1">
+    <row r="131" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="47"/>
       <c r="B131" s="7"/>
       <c r="C131" s="14"/>
@@ -5186,7 +5487,7 @@
         <v>118</v>
       </c>
       <c r="F131" s="35">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G131" s="36"/>
       <c r="H131" s="15"/>
@@ -5210,7 +5511,7 @@
       <c r="Z131" s="13"/>
       <c r="AA131" s="13"/>
     </row>
-    <row r="132" ht="21.75" customHeight="1">
+    <row r="132" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="47"/>
       <c r="B132" s="7"/>
       <c r="C132" s="14"/>
@@ -5219,7 +5520,7 @@
         <v>119</v>
       </c>
       <c r="F132" s="35">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G132" s="36"/>
       <c r="H132" s="15"/>
@@ -5243,7 +5544,7 @@
       <c r="Z132" s="13"/>
       <c r="AA132" s="13"/>
     </row>
-    <row r="133" ht="21.75" customHeight="1">
+    <row r="133" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="19"/>
       <c r="B133" s="7"/>
       <c r="C133" s="14"/>
@@ -5252,7 +5553,7 @@
         <v>24</v>
       </c>
       <c r="F133" s="35">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G133" s="36"/>
       <c r="H133" s="13"/>
@@ -5276,9 +5577,9 @@
       <c r="Z133" s="13"/>
       <c r="AA133" s="13"/>
     </row>
-    <row r="134" ht="21.75" customHeight="1">
+    <row r="134" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="26">
-        <v>42755.0</v>
+        <v>42755</v>
       </c>
       <c r="B134" s="27" t="s">
         <v>120</v>
@@ -5309,9 +5610,9 @@
       <c r="Z134" s="32"/>
       <c r="AA134" s="32"/>
     </row>
-    <row r="135" ht="21.75" customHeight="1">
+    <row r="135" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="74">
-        <v>42758.0</v>
+        <v>42758</v>
       </c>
       <c r="B135" s="75" t="s">
         <v>115</v>
@@ -5342,7 +5643,7 @@
       <c r="Z135" s="32"/>
       <c r="AA135" s="32"/>
     </row>
-    <row r="136" ht="21.75" customHeight="1">
+    <row r="136" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="80"/>
       <c r="B136" s="54"/>
       <c r="C136" s="81"/>
@@ -5351,12 +5652,12 @@
         <v>121</v>
       </c>
       <c r="F136" s="83">
-        <f t="shared" ref="F136:G136" si="1">SUM(F1:F133)</f>
+        <f t="shared" ref="F136:G136" si="0">SUM(F1:F133)</f>
         <v>665</v>
       </c>
       <c r="G136" s="83">
-        <f t="shared" si="1"/>
-        <v>220</v>
+        <f t="shared" si="0"/>
+        <v>222</v>
       </c>
       <c r="H136" s="32"/>
       <c r="I136" s="32"/>
@@ -5379,7 +5680,7 @@
       <c r="Z136" s="32"/>
       <c r="AA136" s="32"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:27" ht="14" x14ac:dyDescent="0.15">
       <c r="A137" s="84"/>
       <c r="B137" s="13"/>
       <c r="C137" s="14"/>
@@ -5410,7 +5711,7 @@
       <c r="Z137" s="13"/>
       <c r="AA137" s="13"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="84"/>
       <c r="B138" s="13"/>
       <c r="C138" s="14"/>
@@ -5441,7 +5742,7 @@
       <c r="Z138" s="13"/>
       <c r="AA138" s="13"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:27" ht="14" x14ac:dyDescent="0.15">
       <c r="A139" s="84"/>
       <c r="B139" s="13"/>
       <c r="C139" s="14"/>
@@ -5472,7 +5773,7 @@
       <c r="Z139" s="13"/>
       <c r="AA139" s="13"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="84"/>
       <c r="B140" s="13"/>
       <c r="C140" s="14"/>
@@ -5501,7 +5802,7 @@
       <c r="Z140" s="13"/>
       <c r="AA140" s="13"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="84"/>
       <c r="B141" s="13"/>
       <c r="C141" s="14"/>
@@ -5530,7 +5831,7 @@
       <c r="Z141" s="13"/>
       <c r="AA141" s="13"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="84"/>
       <c r="B142" s="13"/>
       <c r="C142" s="14"/>
@@ -5559,7 +5860,7 @@
       <c r="Z142" s="13"/>
       <c r="AA142" s="13"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="84"/>
       <c r="B143" s="13"/>
       <c r="C143" s="14"/>
@@ -5588,7 +5889,7 @@
       <c r="Z143" s="13"/>
       <c r="AA143" s="13"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="84"/>
       <c r="B144" s="13"/>
       <c r="C144" s="14"/>
@@ -5617,7 +5918,7 @@
       <c r="Z144" s="13"/>
       <c r="AA144" s="13"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="84"/>
       <c r="B145" s="13"/>
       <c r="C145" s="14"/>
@@ -5646,7 +5947,7 @@
       <c r="Z145" s="13"/>
       <c r="AA145" s="13"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="84"/>
       <c r="B146" s="13"/>
       <c r="C146" s="14"/>
@@ -5675,7 +5976,7 @@
       <c r="Z146" s="13"/>
       <c r="AA146" s="13"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="84"/>
       <c r="B147" s="13"/>
       <c r="C147" s="14"/>
@@ -5704,7 +6005,7 @@
       <c r="Z147" s="13"/>
       <c r="AA147" s="13"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="84"/>
       <c r="B148" s="13"/>
       <c r="C148" s="14"/>
@@ -5733,7 +6034,7 @@
       <c r="Z148" s="13"/>
       <c r="AA148" s="13"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="84"/>
       <c r="B149" s="13"/>
       <c r="C149" s="14"/>
@@ -5762,7 +6063,7 @@
       <c r="Z149" s="13"/>
       <c r="AA149" s="13"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="84"/>
       <c r="B150" s="13"/>
       <c r="C150" s="14"/>
@@ -5791,7 +6092,7 @@
       <c r="Z150" s="13"/>
       <c r="AA150" s="13"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="84"/>
       <c r="B151" s="13"/>
       <c r="C151" s="14"/>
@@ -5820,7 +6121,7 @@
       <c r="Z151" s="13"/>
       <c r="AA151" s="13"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="84"/>
       <c r="B152" s="13"/>
       <c r="C152" s="14"/>
@@ -5849,7 +6150,7 @@
       <c r="Z152" s="13"/>
       <c r="AA152" s="13"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="84"/>
       <c r="B153" s="13"/>
       <c r="C153" s="14"/>
@@ -5878,7 +6179,7 @@
       <c r="Z153" s="13"/>
       <c r="AA153" s="13"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="84"/>
       <c r="B154" s="13"/>
       <c r="C154" s="14"/>
@@ -5907,7 +6208,7 @@
       <c r="Z154" s="13"/>
       <c r="AA154" s="13"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="84"/>
       <c r="B155" s="13"/>
       <c r="C155" s="14"/>
@@ -5936,7 +6237,7 @@
       <c r="Z155" s="13"/>
       <c r="AA155" s="13"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="84"/>
       <c r="B156" s="13"/>
       <c r="C156" s="14"/>
@@ -5965,7 +6266,7 @@
       <c r="Z156" s="13"/>
       <c r="AA156" s="13"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="84"/>
       <c r="B157" s="13"/>
       <c r="C157" s="14"/>
@@ -5994,7 +6295,7 @@
       <c r="Z157" s="13"/>
       <c r="AA157" s="13"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="84"/>
       <c r="B158" s="13"/>
       <c r="C158" s="14"/>
@@ -6023,7 +6324,7 @@
       <c r="Z158" s="13"/>
       <c r="AA158" s="13"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="84"/>
       <c r="B159" s="13"/>
       <c r="C159" s="14"/>
@@ -6052,7 +6353,7 @@
       <c r="Z159" s="13"/>
       <c r="AA159" s="13"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="84"/>
       <c r="B160" s="13"/>
       <c r="C160" s="14"/>
@@ -6081,7 +6382,7 @@
       <c r="Z160" s="13"/>
       <c r="AA160" s="13"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="84"/>
       <c r="B161" s="13"/>
       <c r="C161" s="14"/>
@@ -6110,7 +6411,7 @@
       <c r="Z161" s="13"/>
       <c r="AA161" s="13"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="84"/>
       <c r="B162" s="13"/>
       <c r="C162" s="14"/>
@@ -6139,7 +6440,7 @@
       <c r="Z162" s="13"/>
       <c r="AA162" s="13"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="84"/>
       <c r="B163" s="13"/>
       <c r="C163" s="14"/>
@@ -6168,7 +6469,7 @@
       <c r="Z163" s="13"/>
       <c r="AA163" s="13"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="84"/>
       <c r="B164" s="13"/>
       <c r="C164" s="14"/>
@@ -6197,7 +6498,7 @@
       <c r="Z164" s="13"/>
       <c r="AA164" s="13"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="84"/>
       <c r="B165" s="13"/>
       <c r="C165" s="14"/>
@@ -6226,7 +6527,7 @@
       <c r="Z165" s="13"/>
       <c r="AA165" s="13"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="84"/>
       <c r="B166" s="13"/>
       <c r="C166" s="14"/>
@@ -6255,7 +6556,7 @@
       <c r="Z166" s="13"/>
       <c r="AA166" s="13"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="84"/>
       <c r="B167" s="13"/>
       <c r="C167" s="14"/>
@@ -6284,7 +6585,7 @@
       <c r="Z167" s="13"/>
       <c r="AA167" s="13"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="84"/>
       <c r="B168" s="13"/>
       <c r="C168" s="14"/>
@@ -6313,7 +6614,7 @@
       <c r="Z168" s="13"/>
       <c r="AA168" s="13"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="84"/>
       <c r="B169" s="13"/>
       <c r="C169" s="14"/>
@@ -6342,7 +6643,7 @@
       <c r="Z169" s="13"/>
       <c r="AA169" s="13"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="84"/>
       <c r="B170" s="13"/>
       <c r="C170" s="14"/>
@@ -6371,7 +6672,7 @@
       <c r="Z170" s="13"/>
       <c r="AA170" s="13"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="84"/>
       <c r="B171" s="13"/>
       <c r="C171" s="14"/>
@@ -6400,7 +6701,7 @@
       <c r="Z171" s="13"/>
       <c r="AA171" s="13"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="84"/>
       <c r="B172" s="13"/>
       <c r="C172" s="14"/>
@@ -6429,7 +6730,7 @@
       <c r="Z172" s="13"/>
       <c r="AA172" s="13"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="84"/>
       <c r="B173" s="13"/>
       <c r="C173" s="14"/>
@@ -6458,7 +6759,7 @@
       <c r="Z173" s="13"/>
       <c r="AA173" s="13"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="84"/>
       <c r="B174" s="13"/>
       <c r="C174" s="14"/>
@@ -6487,7 +6788,7 @@
       <c r="Z174" s="13"/>
       <c r="AA174" s="13"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="84"/>
       <c r="B175" s="13"/>
       <c r="C175" s="14"/>
@@ -6516,7 +6817,7 @@
       <c r="Z175" s="13"/>
       <c r="AA175" s="13"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="84"/>
       <c r="B176" s="13"/>
       <c r="C176" s="14"/>
@@ -6545,7 +6846,7 @@
       <c r="Z176" s="13"/>
       <c r="AA176" s="13"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="84"/>
       <c r="B177" s="13"/>
       <c r="C177" s="14"/>
@@ -6574,7 +6875,7 @@
       <c r="Z177" s="13"/>
       <c r="AA177" s="13"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="84"/>
       <c r="B178" s="13"/>
       <c r="C178" s="14"/>
@@ -6603,7 +6904,7 @@
       <c r="Z178" s="13"/>
       <c r="AA178" s="13"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="84"/>
       <c r="B179" s="13"/>
       <c r="C179" s="14"/>
@@ -6632,7 +6933,7 @@
       <c r="Z179" s="13"/>
       <c r="AA179" s="13"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="84"/>
       <c r="B180" s="13"/>
       <c r="C180" s="14"/>
@@ -6661,7 +6962,7 @@
       <c r="Z180" s="13"/>
       <c r="AA180" s="13"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="84"/>
       <c r="B181" s="13"/>
       <c r="C181" s="14"/>
@@ -6690,7 +6991,7 @@
       <c r="Z181" s="13"/>
       <c r="AA181" s="13"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="84"/>
       <c r="B182" s="13"/>
       <c r="C182" s="14"/>
@@ -6719,7 +7020,7 @@
       <c r="Z182" s="13"/>
       <c r="AA182" s="13"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="84"/>
       <c r="B183" s="13"/>
       <c r="C183" s="14"/>
@@ -6748,7 +7049,7 @@
       <c r="Z183" s="13"/>
       <c r="AA183" s="13"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="84"/>
       <c r="B184" s="13"/>
       <c r="C184" s="14"/>
@@ -6777,7 +7078,7 @@
       <c r="Z184" s="13"/>
       <c r="AA184" s="13"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="84"/>
       <c r="B185" s="13"/>
       <c r="C185" s="14"/>
@@ -6806,7 +7107,7 @@
       <c r="Z185" s="13"/>
       <c r="AA185" s="13"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="84"/>
       <c r="B186" s="13"/>
       <c r="C186" s="14"/>
@@ -6835,7 +7136,7 @@
       <c r="Z186" s="13"/>
       <c r="AA186" s="13"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="84"/>
       <c r="B187" s="13"/>
       <c r="C187" s="14"/>
@@ -6864,7 +7165,7 @@
       <c r="Z187" s="13"/>
       <c r="AA187" s="13"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="84"/>
       <c r="B188" s="13"/>
       <c r="C188" s="14"/>
@@ -6893,7 +7194,7 @@
       <c r="Z188" s="13"/>
       <c r="AA188" s="13"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="84"/>
       <c r="B189" s="13"/>
       <c r="C189" s="14"/>
@@ -6922,7 +7223,7 @@
       <c r="Z189" s="13"/>
       <c r="AA189" s="13"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="84"/>
       <c r="B190" s="13"/>
       <c r="C190" s="14"/>
@@ -6951,7 +7252,7 @@
       <c r="Z190" s="13"/>
       <c r="AA190" s="13"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="84"/>
       <c r="B191" s="13"/>
       <c r="C191" s="14"/>
@@ -6980,7 +7281,7 @@
       <c r="Z191" s="13"/>
       <c r="AA191" s="13"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="84"/>
       <c r="B192" s="13"/>
       <c r="C192" s="14"/>
@@ -7009,7 +7310,7 @@
       <c r="Z192" s="13"/>
       <c r="AA192" s="13"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="84"/>
       <c r="B193" s="13"/>
       <c r="C193" s="14"/>
@@ -7038,7 +7339,7 @@
       <c r="Z193" s="13"/>
       <c r="AA193" s="13"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="84"/>
       <c r="B194" s="13"/>
       <c r="C194" s="14"/>
@@ -7067,7 +7368,7 @@
       <c r="Z194" s="13"/>
       <c r="AA194" s="13"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="84"/>
       <c r="B195" s="13"/>
       <c r="C195" s="14"/>
@@ -7096,7 +7397,7 @@
       <c r="Z195" s="13"/>
       <c r="AA195" s="13"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="84"/>
       <c r="B196" s="13"/>
       <c r="C196" s="14"/>
@@ -7125,7 +7426,7 @@
       <c r="Z196" s="13"/>
       <c r="AA196" s="13"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="84"/>
       <c r="B197" s="13"/>
       <c r="C197" s="14"/>
@@ -7154,7 +7455,7 @@
       <c r="Z197" s="13"/>
       <c r="AA197" s="13"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="84"/>
       <c r="B198" s="13"/>
       <c r="C198" s="14"/>
@@ -7183,7 +7484,7 @@
       <c r="Z198" s="13"/>
       <c r="AA198" s="13"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="84"/>
       <c r="B199" s="13"/>
       <c r="C199" s="14"/>
@@ -7212,7 +7513,7 @@
       <c r="Z199" s="13"/>
       <c r="AA199" s="13"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="84"/>
       <c r="B200" s="13"/>
       <c r="C200" s="14"/>
@@ -7241,7 +7542,7 @@
       <c r="Z200" s="13"/>
       <c r="AA200" s="13"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="84"/>
       <c r="B201" s="13"/>
       <c r="C201" s="14"/>
@@ -7270,7 +7571,7 @@
       <c r="Z201" s="13"/>
       <c r="AA201" s="13"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="84"/>
       <c r="B202" s="13"/>
       <c r="C202" s="14"/>
@@ -7299,7 +7600,7 @@
       <c r="Z202" s="13"/>
       <c r="AA202" s="13"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="84"/>
       <c r="B203" s="13"/>
       <c r="C203" s="14"/>
@@ -7328,7 +7629,7 @@
       <c r="Z203" s="13"/>
       <c r="AA203" s="13"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="84"/>
       <c r="B204" s="13"/>
       <c r="C204" s="14"/>
@@ -7357,7 +7658,7 @@
       <c r="Z204" s="13"/>
       <c r="AA204" s="13"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="84"/>
       <c r="B205" s="13"/>
       <c r="C205" s="14"/>
@@ -7386,7 +7687,7 @@
       <c r="Z205" s="13"/>
       <c r="AA205" s="13"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="84"/>
       <c r="B206" s="13"/>
       <c r="C206" s="14"/>
@@ -7415,7 +7716,7 @@
       <c r="Z206" s="13"/>
       <c r="AA206" s="13"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="84"/>
       <c r="B207" s="13"/>
       <c r="C207" s="14"/>
@@ -7444,7 +7745,7 @@
       <c r="Z207" s="13"/>
       <c r="AA207" s="13"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="84"/>
       <c r="B208" s="13"/>
       <c r="C208" s="14"/>
@@ -7473,7 +7774,7 @@
       <c r="Z208" s="13"/>
       <c r="AA208" s="13"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="84"/>
       <c r="B209" s="13"/>
       <c r="C209" s="14"/>
@@ -7502,7 +7803,7 @@
       <c r="Z209" s="13"/>
       <c r="AA209" s="13"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="84"/>
       <c r="B210" s="13"/>
       <c r="C210" s="14"/>
@@ -7531,7 +7832,7 @@
       <c r="Z210" s="13"/>
       <c r="AA210" s="13"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="84"/>
       <c r="B211" s="13"/>
       <c r="C211" s="14"/>
@@ -7560,7 +7861,7 @@
       <c r="Z211" s="13"/>
       <c r="AA211" s="13"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="84"/>
       <c r="B212" s="13"/>
       <c r="C212" s="14"/>
@@ -7589,7 +7890,7 @@
       <c r="Z212" s="13"/>
       <c r="AA212" s="13"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="84"/>
       <c r="B213" s="13"/>
       <c r="C213" s="14"/>
@@ -7618,7 +7919,7 @@
       <c r="Z213" s="13"/>
       <c r="AA213" s="13"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="84"/>
       <c r="B214" s="13"/>
       <c r="C214" s="14"/>
@@ -7647,7 +7948,7 @@
       <c r="Z214" s="13"/>
       <c r="AA214" s="13"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="84"/>
       <c r="B215" s="13"/>
       <c r="C215" s="14"/>
@@ -7676,7 +7977,7 @@
       <c r="Z215" s="13"/>
       <c r="AA215" s="13"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="84"/>
       <c r="B216" s="13"/>
       <c r="C216" s="14"/>
@@ -7705,7 +8006,7 @@
       <c r="Z216" s="13"/>
       <c r="AA216" s="13"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="84"/>
       <c r="B217" s="13"/>
       <c r="C217" s="14"/>
@@ -7734,7 +8035,7 @@
       <c r="Z217" s="13"/>
       <c r="AA217" s="13"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="84"/>
       <c r="B218" s="13"/>
       <c r="C218" s="14"/>
@@ -7763,7 +8064,7 @@
       <c r="Z218" s="13"/>
       <c r="AA218" s="13"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="84"/>
       <c r="B219" s="13"/>
       <c r="C219" s="14"/>
@@ -7792,7 +8093,7 @@
       <c r="Z219" s="13"/>
       <c r="AA219" s="13"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="84"/>
       <c r="B220" s="13"/>
       <c r="C220" s="14"/>
@@ -7821,7 +8122,7 @@
       <c r="Z220" s="13"/>
       <c r="AA220" s="13"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="84"/>
       <c r="B221" s="13"/>
       <c r="C221" s="14"/>
@@ -7850,7 +8151,7 @@
       <c r="Z221" s="13"/>
       <c r="AA221" s="13"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="84"/>
       <c r="B222" s="13"/>
       <c r="C222" s="14"/>
@@ -7879,7 +8180,7 @@
       <c r="Z222" s="13"/>
       <c r="AA222" s="13"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="84"/>
       <c r="B223" s="13"/>
       <c r="C223" s="14"/>
@@ -7908,7 +8209,7 @@
       <c r="Z223" s="13"/>
       <c r="AA223" s="13"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="84"/>
       <c r="B224" s="13"/>
       <c r="C224" s="14"/>
@@ -7937,7 +8238,7 @@
       <c r="Z224" s="13"/>
       <c r="AA224" s="13"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="84"/>
       <c r="B225" s="13"/>
       <c r="C225" s="14"/>
@@ -7966,7 +8267,7 @@
       <c r="Z225" s="13"/>
       <c r="AA225" s="13"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="84"/>
       <c r="B226" s="13"/>
       <c r="C226" s="14"/>
@@ -7995,7 +8296,7 @@
       <c r="Z226" s="13"/>
       <c r="AA226" s="13"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="84"/>
       <c r="B227" s="13"/>
       <c r="C227" s="14"/>
@@ -8024,7 +8325,7 @@
       <c r="Z227" s="13"/>
       <c r="AA227" s="13"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="84"/>
       <c r="B228" s="13"/>
       <c r="C228" s="14"/>
@@ -8053,7 +8354,7 @@
       <c r="Z228" s="13"/>
       <c r="AA228" s="13"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="84"/>
       <c r="B229" s="13"/>
       <c r="C229" s="14"/>
@@ -8082,7 +8383,7 @@
       <c r="Z229" s="13"/>
       <c r="AA229" s="13"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="84"/>
       <c r="B230" s="13"/>
       <c r="C230" s="14"/>
@@ -8111,7 +8412,7 @@
       <c r="Z230" s="13"/>
       <c r="AA230" s="13"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="84"/>
       <c r="B231" s="13"/>
       <c r="C231" s="14"/>
@@ -8140,7 +8441,7 @@
       <c r="Z231" s="13"/>
       <c r="AA231" s="13"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="84"/>
       <c r="B232" s="13"/>
       <c r="C232" s="14"/>
@@ -8169,7 +8470,7 @@
       <c r="Z232" s="13"/>
       <c r="AA232" s="13"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="84"/>
       <c r="B233" s="13"/>
       <c r="C233" s="14"/>
@@ -8198,7 +8499,7 @@
       <c r="Z233" s="13"/>
       <c r="AA233" s="13"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="84"/>
       <c r="B234" s="13"/>
       <c r="C234" s="14"/>
@@ -8227,7 +8528,7 @@
       <c r="Z234" s="13"/>
       <c r="AA234" s="13"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="84"/>
       <c r="B235" s="13"/>
       <c r="C235" s="14"/>
@@ -8256,7 +8557,7 @@
       <c r="Z235" s="13"/>
       <c r="AA235" s="13"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="84"/>
       <c r="B236" s="13"/>
       <c r="C236" s="14"/>
@@ -8285,7 +8586,7 @@
       <c r="Z236" s="13"/>
       <c r="AA236" s="13"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="84"/>
       <c r="B237" s="13"/>
       <c r="C237" s="14"/>
@@ -8314,7 +8615,7 @@
       <c r="Z237" s="13"/>
       <c r="AA237" s="13"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="84"/>
       <c r="B238" s="13"/>
       <c r="C238" s="14"/>
@@ -8343,7 +8644,7 @@
       <c r="Z238" s="13"/>
       <c r="AA238" s="13"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="84"/>
       <c r="B239" s="13"/>
       <c r="C239" s="14"/>
@@ -8372,7 +8673,7 @@
       <c r="Z239" s="13"/>
       <c r="AA239" s="13"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="84"/>
       <c r="B240" s="13"/>
       <c r="C240" s="14"/>
@@ -8401,7 +8702,7 @@
       <c r="Z240" s="13"/>
       <c r="AA240" s="13"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="84"/>
       <c r="B241" s="13"/>
       <c r="C241" s="14"/>
@@ -8430,7 +8731,7 @@
       <c r="Z241" s="13"/>
       <c r="AA241" s="13"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="84"/>
       <c r="B242" s="13"/>
       <c r="C242" s="14"/>
@@ -8459,7 +8760,7 @@
       <c r="Z242" s="13"/>
       <c r="AA242" s="13"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="84"/>
       <c r="B243" s="13"/>
       <c r="C243" s="14"/>
@@ -8488,7 +8789,7 @@
       <c r="Z243" s="13"/>
       <c r="AA243" s="13"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="84"/>
       <c r="B244" s="13"/>
       <c r="C244" s="14"/>
@@ -8517,7 +8818,7 @@
       <c r="Z244" s="13"/>
       <c r="AA244" s="13"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="84"/>
       <c r="B245" s="13"/>
       <c r="C245" s="14"/>
@@ -8546,7 +8847,7 @@
       <c r="Z245" s="13"/>
       <c r="AA245" s="13"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="84"/>
       <c r="B246" s="13"/>
       <c r="C246" s="14"/>
@@ -8575,7 +8876,7 @@
       <c r="Z246" s="13"/>
       <c r="AA246" s="13"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="84"/>
       <c r="B247" s="13"/>
       <c r="C247" s="14"/>
@@ -8604,7 +8905,7 @@
       <c r="Z247" s="13"/>
       <c r="AA247" s="13"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="84"/>
       <c r="B248" s="13"/>
       <c r="C248" s="14"/>
@@ -8633,7 +8934,7 @@
       <c r="Z248" s="13"/>
       <c r="AA248" s="13"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="84"/>
       <c r="B249" s="13"/>
       <c r="C249" s="14"/>
@@ -8662,7 +8963,7 @@
       <c r="Z249" s="13"/>
       <c r="AA249" s="13"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="84"/>
       <c r="B250" s="13"/>
       <c r="C250" s="14"/>
@@ -8691,7 +8992,7 @@
       <c r="Z250" s="13"/>
       <c r="AA250" s="13"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="84"/>
       <c r="B251" s="13"/>
       <c r="C251" s="14"/>
@@ -8720,7 +9021,7 @@
       <c r="Z251" s="13"/>
       <c r="AA251" s="13"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="84"/>
       <c r="B252" s="13"/>
       <c r="C252" s="14"/>
@@ -8749,7 +9050,7 @@
       <c r="Z252" s="13"/>
       <c r="AA252" s="13"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="84"/>
       <c r="B253" s="13"/>
       <c r="C253" s="14"/>
@@ -8778,7 +9079,7 @@
       <c r="Z253" s="13"/>
       <c r="AA253" s="13"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="84"/>
       <c r="B254" s="13"/>
       <c r="C254" s="14"/>
@@ -8807,7 +9108,7 @@
       <c r="Z254" s="13"/>
       <c r="AA254" s="13"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="84"/>
       <c r="B255" s="13"/>
       <c r="C255" s="14"/>
@@ -8836,7 +9137,7 @@
       <c r="Z255" s="13"/>
       <c r="AA255" s="13"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="84"/>
       <c r="B256" s="13"/>
       <c r="C256" s="14"/>
@@ -8865,7 +9166,7 @@
       <c r="Z256" s="13"/>
       <c r="AA256" s="13"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="84"/>
       <c r="B257" s="13"/>
       <c r="C257" s="14"/>
@@ -8894,7 +9195,7 @@
       <c r="Z257" s="13"/>
       <c r="AA257" s="13"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="84"/>
       <c r="B258" s="13"/>
       <c r="C258" s="14"/>
@@ -8923,7 +9224,7 @@
       <c r="Z258" s="13"/>
       <c r="AA258" s="13"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="84"/>
       <c r="B259" s="13"/>
       <c r="C259" s="14"/>
@@ -8952,7 +9253,7 @@
       <c r="Z259" s="13"/>
       <c r="AA259" s="13"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="84"/>
       <c r="B260" s="13"/>
       <c r="C260" s="14"/>
@@ -8981,7 +9282,7 @@
       <c r="Z260" s="13"/>
       <c r="AA260" s="13"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="84"/>
       <c r="B261" s="13"/>
       <c r="C261" s="14"/>
@@ -9010,7 +9311,7 @@
       <c r="Z261" s="13"/>
       <c r="AA261" s="13"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="84"/>
       <c r="B262" s="13"/>
       <c r="C262" s="14"/>
@@ -9039,7 +9340,7 @@
       <c r="Z262" s="13"/>
       <c r="AA262" s="13"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="84"/>
       <c r="B263" s="13"/>
       <c r="C263" s="14"/>
@@ -9068,7 +9369,7 @@
       <c r="Z263" s="13"/>
       <c r="AA263" s="13"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="84"/>
       <c r="B264" s="13"/>
       <c r="C264" s="14"/>
@@ -9097,7 +9398,7 @@
       <c r="Z264" s="13"/>
       <c r="AA264" s="13"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="84"/>
       <c r="B265" s="13"/>
       <c r="C265" s="14"/>
@@ -9126,7 +9427,7 @@
       <c r="Z265" s="13"/>
       <c r="AA265" s="13"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="84"/>
       <c r="B266" s="13"/>
       <c r="C266" s="14"/>
@@ -9155,7 +9456,7 @@
       <c r="Z266" s="13"/>
       <c r="AA266" s="13"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="84"/>
       <c r="B267" s="13"/>
       <c r="C267" s="14"/>
@@ -9184,7 +9485,7 @@
       <c r="Z267" s="13"/>
       <c r="AA267" s="13"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="84"/>
       <c r="B268" s="13"/>
       <c r="C268" s="14"/>
@@ -9213,7 +9514,7 @@
       <c r="Z268" s="13"/>
       <c r="AA268" s="13"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="84"/>
       <c r="B269" s="13"/>
       <c r="C269" s="14"/>
@@ -9242,7 +9543,7 @@
       <c r="Z269" s="13"/>
       <c r="AA269" s="13"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="84"/>
       <c r="B270" s="13"/>
       <c r="C270" s="14"/>
@@ -9271,7 +9572,7 @@
       <c r="Z270" s="13"/>
       <c r="AA270" s="13"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="84"/>
       <c r="B271" s="13"/>
       <c r="C271" s="14"/>
@@ -9300,7 +9601,7 @@
       <c r="Z271" s="13"/>
       <c r="AA271" s="13"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="84"/>
       <c r="B272" s="13"/>
       <c r="C272" s="14"/>
@@ -9329,7 +9630,7 @@
       <c r="Z272" s="13"/>
       <c r="AA272" s="13"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="84"/>
       <c r="B273" s="13"/>
       <c r="C273" s="14"/>
@@ -9358,7 +9659,7 @@
       <c r="Z273" s="13"/>
       <c r="AA273" s="13"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="84"/>
       <c r="B274" s="13"/>
       <c r="C274" s="14"/>
@@ -9387,7 +9688,7 @@
       <c r="Z274" s="13"/>
       <c r="AA274" s="13"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="84"/>
       <c r="B275" s="13"/>
       <c r="C275" s="14"/>
@@ -9416,7 +9717,7 @@
       <c r="Z275" s="13"/>
       <c r="AA275" s="13"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="84"/>
       <c r="B276" s="13"/>
       <c r="C276" s="14"/>
@@ -9445,7 +9746,7 @@
       <c r="Z276" s="13"/>
       <c r="AA276" s="13"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="84"/>
       <c r="B277" s="13"/>
       <c r="C277" s="14"/>
@@ -9474,7 +9775,7 @@
       <c r="Z277" s="13"/>
       <c r="AA277" s="13"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="84"/>
       <c r="B278" s="13"/>
       <c r="C278" s="14"/>
@@ -9503,7 +9804,7 @@
       <c r="Z278" s="13"/>
       <c r="AA278" s="13"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="84"/>
       <c r="B279" s="13"/>
       <c r="C279" s="14"/>
@@ -9532,7 +9833,7 @@
       <c r="Z279" s="13"/>
       <c r="AA279" s="13"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="84"/>
       <c r="B280" s="13"/>
       <c r="C280" s="14"/>
@@ -9561,7 +9862,7 @@
       <c r="Z280" s="13"/>
       <c r="AA280" s="13"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" s="84"/>
       <c r="B281" s="13"/>
       <c r="C281" s="14"/>
@@ -9590,7 +9891,7 @@
       <c r="Z281" s="13"/>
       <c r="AA281" s="13"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="84"/>
       <c r="B282" s="13"/>
       <c r="C282" s="14"/>
@@ -9619,7 +9920,7 @@
       <c r="Z282" s="13"/>
       <c r="AA282" s="13"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="84"/>
       <c r="B283" s="13"/>
       <c r="C283" s="14"/>
@@ -9648,7 +9949,7 @@
       <c r="Z283" s="13"/>
       <c r="AA283" s="13"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="84"/>
       <c r="B284" s="13"/>
       <c r="C284" s="14"/>
@@ -9677,7 +9978,7 @@
       <c r="Z284" s="13"/>
       <c r="AA284" s="13"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" s="84"/>
       <c r="B285" s="13"/>
       <c r="C285" s="14"/>
@@ -9706,7 +10007,7 @@
       <c r="Z285" s="13"/>
       <c r="AA285" s="13"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A286" s="84"/>
       <c r="B286" s="13"/>
       <c r="C286" s="14"/>
@@ -9735,7 +10036,7 @@
       <c r="Z286" s="13"/>
       <c r="AA286" s="13"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="84"/>
       <c r="B287" s="13"/>
       <c r="C287" s="14"/>
@@ -9764,7 +10065,7 @@
       <c r="Z287" s="13"/>
       <c r="AA287" s="13"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A288" s="84"/>
       <c r="B288" s="13"/>
       <c r="C288" s="14"/>
@@ -9793,7 +10094,7 @@
       <c r="Z288" s="13"/>
       <c r="AA288" s="13"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" s="84"/>
       <c r="B289" s="13"/>
       <c r="C289" s="14"/>
@@ -9822,7 +10123,7 @@
       <c r="Z289" s="13"/>
       <c r="AA289" s="13"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" s="84"/>
       <c r="B290" s="13"/>
       <c r="C290" s="14"/>
@@ -9851,7 +10152,7 @@
       <c r="Z290" s="13"/>
       <c r="AA290" s="13"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="84"/>
       <c r="B291" s="13"/>
       <c r="C291" s="14"/>
@@ -9880,7 +10181,7 @@
       <c r="Z291" s="13"/>
       <c r="AA291" s="13"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="84"/>
       <c r="B292" s="13"/>
       <c r="C292" s="14"/>
@@ -9909,7 +10210,7 @@
       <c r="Z292" s="13"/>
       <c r="AA292" s="13"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="84"/>
       <c r="B293" s="13"/>
       <c r="C293" s="14"/>
@@ -9938,7 +10239,7 @@
       <c r="Z293" s="13"/>
       <c r="AA293" s="13"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="84"/>
       <c r="B294" s="13"/>
       <c r="C294" s="14"/>
@@ -9967,7 +10268,7 @@
       <c r="Z294" s="13"/>
       <c r="AA294" s="13"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="84"/>
       <c r="B295" s="13"/>
       <c r="C295" s="14"/>
@@ -9996,7 +10297,7 @@
       <c r="Z295" s="13"/>
       <c r="AA295" s="13"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="84"/>
       <c r="B296" s="13"/>
       <c r="C296" s="14"/>
@@ -10025,7 +10326,7 @@
       <c r="Z296" s="13"/>
       <c r="AA296" s="13"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="84"/>
       <c r="B297" s="13"/>
       <c r="C297" s="14"/>
@@ -10054,7 +10355,7 @@
       <c r="Z297" s="13"/>
       <c r="AA297" s="13"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="84"/>
       <c r="B298" s="13"/>
       <c r="C298" s="14"/>
@@ -10083,7 +10384,7 @@
       <c r="Z298" s="13"/>
       <c r="AA298" s="13"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="84"/>
       <c r="B299" s="13"/>
       <c r="C299" s="14"/>
@@ -10112,7 +10413,7 @@
       <c r="Z299" s="13"/>
       <c r="AA299" s="13"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="84"/>
       <c r="B300" s="13"/>
       <c r="C300" s="14"/>
@@ -10141,7 +10442,7 @@
       <c r="Z300" s="13"/>
       <c r="AA300" s="13"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="84"/>
       <c r="B301" s="13"/>
       <c r="C301" s="14"/>
@@ -10170,7 +10471,7 @@
       <c r="Z301" s="13"/>
       <c r="AA301" s="13"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="84"/>
       <c r="B302" s="13"/>
       <c r="C302" s="14"/>
@@ -10199,7 +10500,7 @@
       <c r="Z302" s="13"/>
       <c r="AA302" s="13"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="84"/>
       <c r="B303" s="13"/>
       <c r="C303" s="14"/>
@@ -10228,7 +10529,7 @@
       <c r="Z303" s="13"/>
       <c r="AA303" s="13"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="84"/>
       <c r="B304" s="13"/>
       <c r="C304" s="14"/>
@@ -10257,7 +10558,7 @@
       <c r="Z304" s="13"/>
       <c r="AA304" s="13"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="84"/>
       <c r="B305" s="13"/>
       <c r="C305" s="14"/>
@@ -10286,7 +10587,7 @@
       <c r="Z305" s="13"/>
       <c r="AA305" s="13"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="84"/>
       <c r="B306" s="13"/>
       <c r="C306" s="14"/>
@@ -10315,7 +10616,7 @@
       <c r="Z306" s="13"/>
       <c r="AA306" s="13"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="84"/>
       <c r="B307" s="13"/>
       <c r="C307" s="14"/>
@@ -10344,7 +10645,7 @@
       <c r="Z307" s="13"/>
       <c r="AA307" s="13"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="84"/>
       <c r="B308" s="13"/>
       <c r="C308" s="14"/>
@@ -10373,7 +10674,7 @@
       <c r="Z308" s="13"/>
       <c r="AA308" s="13"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="84"/>
       <c r="B309" s="13"/>
       <c r="C309" s="14"/>
@@ -10402,7 +10703,7 @@
       <c r="Z309" s="13"/>
       <c r="AA309" s="13"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="84"/>
       <c r="B310" s="13"/>
       <c r="C310" s="14"/>
@@ -10431,7 +10732,7 @@
       <c r="Z310" s="13"/>
       <c r="AA310" s="13"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="84"/>
       <c r="B311" s="13"/>
       <c r="C311" s="14"/>
@@ -10460,7 +10761,7 @@
       <c r="Z311" s="13"/>
       <c r="AA311" s="13"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="84"/>
       <c r="B312" s="13"/>
       <c r="C312" s="14"/>
@@ -10489,7 +10790,7 @@
       <c r="Z312" s="13"/>
       <c r="AA312" s="13"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="84"/>
       <c r="B313" s="13"/>
       <c r="C313" s="14"/>
@@ -10518,7 +10819,7 @@
       <c r="Z313" s="13"/>
       <c r="AA313" s="13"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="84"/>
       <c r="B314" s="13"/>
       <c r="C314" s="14"/>
@@ -10547,7 +10848,7 @@
       <c r="Z314" s="13"/>
       <c r="AA314" s="13"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="84"/>
       <c r="B315" s="13"/>
       <c r="C315" s="14"/>
@@ -10576,7 +10877,7 @@
       <c r="Z315" s="13"/>
       <c r="AA315" s="13"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="84"/>
       <c r="B316" s="13"/>
       <c r="C316" s="14"/>
@@ -10605,7 +10906,7 @@
       <c r="Z316" s="13"/>
       <c r="AA316" s="13"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="84"/>
       <c r="B317" s="13"/>
       <c r="C317" s="14"/>
@@ -10634,7 +10935,7 @@
       <c r="Z317" s="13"/>
       <c r="AA317" s="13"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="84"/>
       <c r="B318" s="13"/>
       <c r="C318" s="14"/>
@@ -10663,7 +10964,7 @@
       <c r="Z318" s="13"/>
       <c r="AA318" s="13"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="84"/>
       <c r="B319" s="13"/>
       <c r="C319" s="14"/>
@@ -10692,7 +10993,7 @@
       <c r="Z319" s="13"/>
       <c r="AA319" s="13"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="84"/>
       <c r="B320" s="13"/>
       <c r="C320" s="14"/>
@@ -10721,7 +11022,7 @@
       <c r="Z320" s="13"/>
       <c r="AA320" s="13"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="84"/>
       <c r="B321" s="13"/>
       <c r="C321" s="14"/>
@@ -10750,7 +11051,7 @@
       <c r="Z321" s="13"/>
       <c r="AA321" s="13"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="84"/>
       <c r="B322" s="13"/>
       <c r="C322" s="14"/>
@@ -10779,7 +11080,7 @@
       <c r="Z322" s="13"/>
       <c r="AA322" s="13"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A323" s="84"/>
       <c r="B323" s="13"/>
       <c r="C323" s="14"/>
@@ -10808,7 +11109,7 @@
       <c r="Z323" s="13"/>
       <c r="AA323" s="13"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="84"/>
       <c r="B324" s="13"/>
       <c r="C324" s="14"/>
@@ -10837,7 +11138,7 @@
       <c r="Z324" s="13"/>
       <c r="AA324" s="13"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="84"/>
       <c r="B325" s="13"/>
       <c r="C325" s="14"/>
@@ -10866,7 +11167,7 @@
       <c r="Z325" s="13"/>
       <c r="AA325" s="13"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A326" s="84"/>
       <c r="B326" s="13"/>
       <c r="C326" s="14"/>
@@ -10895,7 +11196,7 @@
       <c r="Z326" s="13"/>
       <c r="AA326" s="13"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A327" s="84"/>
       <c r="B327" s="13"/>
       <c r="C327" s="14"/>
@@ -10924,7 +11225,7 @@
       <c r="Z327" s="13"/>
       <c r="AA327" s="13"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="84"/>
       <c r="B328" s="13"/>
       <c r="C328" s="14"/>
@@ -10953,7 +11254,7 @@
       <c r="Z328" s="13"/>
       <c r="AA328" s="13"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A329" s="84"/>
       <c r="B329" s="13"/>
       <c r="C329" s="14"/>
@@ -10982,7 +11283,7 @@
       <c r="Z329" s="13"/>
       <c r="AA329" s="13"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="84"/>
       <c r="B330" s="13"/>
       <c r="C330" s="14"/>
@@ -11011,7 +11312,7 @@
       <c r="Z330" s="13"/>
       <c r="AA330" s="13"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A331" s="84"/>
       <c r="B331" s="13"/>
       <c r="C331" s="14"/>
@@ -11040,7 +11341,7 @@
       <c r="Z331" s="13"/>
       <c r="AA331" s="13"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A332" s="84"/>
       <c r="B332" s="13"/>
       <c r="C332" s="14"/>
@@ -11069,7 +11370,7 @@
       <c r="Z332" s="13"/>
       <c r="AA332" s="13"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="84"/>
       <c r="B333" s="13"/>
       <c r="C333" s="14"/>
@@ -11098,7 +11399,7 @@
       <c r="Z333" s="13"/>
       <c r="AA333" s="13"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="84"/>
       <c r="B334" s="13"/>
       <c r="C334" s="14"/>
@@ -11127,7 +11428,7 @@
       <c r="Z334" s="13"/>
       <c r="AA334" s="13"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="84"/>
       <c r="B335" s="13"/>
       <c r="C335" s="14"/>
@@ -11156,7 +11457,7 @@
       <c r="Z335" s="13"/>
       <c r="AA335" s="13"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="84"/>
       <c r="B336" s="13"/>
       <c r="C336" s="14"/>
@@ -11185,7 +11486,7 @@
       <c r="Z336" s="13"/>
       <c r="AA336" s="13"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="84"/>
       <c r="B337" s="13"/>
       <c r="C337" s="14"/>
@@ -11214,7 +11515,7 @@
       <c r="Z337" s="13"/>
       <c r="AA337" s="13"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A338" s="84"/>
       <c r="B338" s="13"/>
       <c r="C338" s="14"/>
@@ -11243,7 +11544,7 @@
       <c r="Z338" s="13"/>
       <c r="AA338" s="13"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="84"/>
       <c r="B339" s="13"/>
       <c r="C339" s="14"/>
@@ -11272,7 +11573,7 @@
       <c r="Z339" s="13"/>
       <c r="AA339" s="13"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A340" s="84"/>
       <c r="B340" s="13"/>
       <c r="C340" s="14"/>
@@ -11301,7 +11602,7 @@
       <c r="Z340" s="13"/>
       <c r="AA340" s="13"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="84"/>
       <c r="B341" s="13"/>
       <c r="C341" s="14"/>
@@ -11330,7 +11631,7 @@
       <c r="Z341" s="13"/>
       <c r="AA341" s="13"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="84"/>
       <c r="B342" s="13"/>
       <c r="C342" s="14"/>
@@ -11359,7 +11660,7 @@
       <c r="Z342" s="13"/>
       <c r="AA342" s="13"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="84"/>
       <c r="B343" s="13"/>
       <c r="C343" s="14"/>
@@ -11388,7 +11689,7 @@
       <c r="Z343" s="13"/>
       <c r="AA343" s="13"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="84"/>
       <c r="B344" s="13"/>
       <c r="C344" s="14"/>
@@ -11417,7 +11718,7 @@
       <c r="Z344" s="13"/>
       <c r="AA344" s="13"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="84"/>
       <c r="B345" s="13"/>
       <c r="C345" s="14"/>
@@ -11446,7 +11747,7 @@
       <c r="Z345" s="13"/>
       <c r="AA345" s="13"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A346" s="84"/>
       <c r="B346" s="13"/>
       <c r="C346" s="14"/>
@@ -11475,7 +11776,7 @@
       <c r="Z346" s="13"/>
       <c r="AA346" s="13"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A347" s="84"/>
       <c r="B347" s="13"/>
       <c r="C347" s="14"/>
@@ -11504,7 +11805,7 @@
       <c r="Z347" s="13"/>
       <c r="AA347" s="13"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="84"/>
       <c r="B348" s="13"/>
       <c r="C348" s="14"/>
@@ -11533,7 +11834,7 @@
       <c r="Z348" s="13"/>
       <c r="AA348" s="13"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A349" s="84"/>
       <c r="B349" s="13"/>
       <c r="C349" s="14"/>
@@ -11562,7 +11863,7 @@
       <c r="Z349" s="13"/>
       <c r="AA349" s="13"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="84"/>
       <c r="B350" s="13"/>
       <c r="C350" s="14"/>
@@ -11591,7 +11892,7 @@
       <c r="Z350" s="13"/>
       <c r="AA350" s="13"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="84"/>
       <c r="B351" s="13"/>
       <c r="C351" s="14"/>
@@ -11620,7 +11921,7 @@
       <c r="Z351" s="13"/>
       <c r="AA351" s="13"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="84"/>
       <c r="B352" s="13"/>
       <c r="C352" s="14"/>
@@ -11649,7 +11950,7 @@
       <c r="Z352" s="13"/>
       <c r="AA352" s="13"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A353" s="84"/>
       <c r="B353" s="13"/>
       <c r="C353" s="14"/>
@@ -11678,7 +11979,7 @@
       <c r="Z353" s="13"/>
       <c r="AA353" s="13"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A354" s="84"/>
       <c r="B354" s="13"/>
       <c r="C354" s="14"/>
@@ -11707,7 +12008,7 @@
       <c r="Z354" s="13"/>
       <c r="AA354" s="13"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A355" s="84"/>
       <c r="B355" s="13"/>
       <c r="C355" s="14"/>
@@ -11736,7 +12037,7 @@
       <c r="Z355" s="13"/>
       <c r="AA355" s="13"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A356" s="84"/>
       <c r="B356" s="13"/>
       <c r="C356" s="14"/>
@@ -11765,7 +12066,7 @@
       <c r="Z356" s="13"/>
       <c r="AA356" s="13"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="84"/>
       <c r="B357" s="13"/>
       <c r="C357" s="14"/>
@@ -11794,7 +12095,7 @@
       <c r="Z357" s="13"/>
       <c r="AA357" s="13"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="84"/>
       <c r="B358" s="13"/>
       <c r="C358" s="14"/>
@@ -11823,7 +12124,7 @@
       <c r="Z358" s="13"/>
       <c r="AA358" s="13"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="84"/>
       <c r="B359" s="13"/>
       <c r="C359" s="14"/>
@@ -11852,7 +12153,7 @@
       <c r="Z359" s="13"/>
       <c r="AA359" s="13"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="84"/>
       <c r="B360" s="13"/>
       <c r="C360" s="14"/>
@@ -11881,7 +12182,7 @@
       <c r="Z360" s="13"/>
       <c r="AA360" s="13"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="84"/>
       <c r="B361" s="13"/>
       <c r="C361" s="14"/>
@@ -11910,7 +12211,7 @@
       <c r="Z361" s="13"/>
       <c r="AA361" s="13"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A362" s="84"/>
       <c r="B362" s="13"/>
       <c r="C362" s="14"/>
@@ -11939,7 +12240,7 @@
       <c r="Z362" s="13"/>
       <c r="AA362" s="13"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A363" s="84"/>
       <c r="B363" s="13"/>
       <c r="C363" s="14"/>
@@ -11968,7 +12269,7 @@
       <c r="Z363" s="13"/>
       <c r="AA363" s="13"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A364" s="84"/>
       <c r="B364" s="13"/>
       <c r="C364" s="14"/>
@@ -11997,7 +12298,7 @@
       <c r="Z364" s="13"/>
       <c r="AA364" s="13"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A365" s="84"/>
       <c r="B365" s="13"/>
       <c r="C365" s="14"/>
@@ -12026,7 +12327,7 @@
       <c r="Z365" s="13"/>
       <c r="AA365" s="13"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="84"/>
       <c r="B366" s="13"/>
       <c r="C366" s="14"/>
@@ -12055,7 +12356,7 @@
       <c r="Z366" s="13"/>
       <c r="AA366" s="13"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="84"/>
       <c r="B367" s="13"/>
       <c r="C367" s="14"/>
@@ -12084,7 +12385,7 @@
       <c r="Z367" s="13"/>
       <c r="AA367" s="13"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A368" s="84"/>
       <c r="B368" s="13"/>
       <c r="C368" s="14"/>
@@ -12113,7 +12414,7 @@
       <c r="Z368" s="13"/>
       <c r="AA368" s="13"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" s="84"/>
       <c r="B369" s="13"/>
       <c r="C369" s="14"/>
@@ -12142,7 +12443,7 @@
       <c r="Z369" s="13"/>
       <c r="AA369" s="13"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" s="84"/>
       <c r="B370" s="13"/>
       <c r="C370" s="14"/>
@@ -12171,7 +12472,7 @@
       <c r="Z370" s="13"/>
       <c r="AA370" s="13"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="84"/>
       <c r="B371" s="13"/>
       <c r="C371" s="14"/>
@@ -12200,7 +12501,7 @@
       <c r="Z371" s="13"/>
       <c r="AA371" s="13"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="84"/>
       <c r="B372" s="13"/>
       <c r="C372" s="14"/>
@@ -12229,7 +12530,7 @@
       <c r="Z372" s="13"/>
       <c r="AA372" s="13"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="84"/>
       <c r="B373" s="13"/>
       <c r="C373" s="14"/>
@@ -12258,7 +12559,7 @@
       <c r="Z373" s="13"/>
       <c r="AA373" s="13"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="84"/>
       <c r="B374" s="13"/>
       <c r="C374" s="14"/>
@@ -12287,7 +12588,7 @@
       <c r="Z374" s="13"/>
       <c r="AA374" s="13"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="84"/>
       <c r="B375" s="13"/>
       <c r="C375" s="14"/>
@@ -12316,7 +12617,7 @@
       <c r="Z375" s="13"/>
       <c r="AA375" s="13"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A376" s="84"/>
       <c r="B376" s="13"/>
       <c r="C376" s="14"/>
@@ -12345,7 +12646,7 @@
       <c r="Z376" s="13"/>
       <c r="AA376" s="13"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="84"/>
       <c r="B377" s="13"/>
       <c r="C377" s="14"/>
@@ -12374,7 +12675,7 @@
       <c r="Z377" s="13"/>
       <c r="AA377" s="13"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A378" s="84"/>
       <c r="B378" s="13"/>
       <c r="C378" s="14"/>
@@ -12403,7 +12704,7 @@
       <c r="Z378" s="13"/>
       <c r="AA378" s="13"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A379" s="84"/>
       <c r="B379" s="13"/>
       <c r="C379" s="14"/>
@@ -12432,7 +12733,7 @@
       <c r="Z379" s="13"/>
       <c r="AA379" s="13"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A380" s="84"/>
       <c r="B380" s="13"/>
       <c r="C380" s="14"/>
@@ -12461,7 +12762,7 @@
       <c r="Z380" s="13"/>
       <c r="AA380" s="13"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A381" s="84"/>
       <c r="B381" s="13"/>
       <c r="C381" s="14"/>
@@ -12490,7 +12791,7 @@
       <c r="Z381" s="13"/>
       <c r="AA381" s="13"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A382" s="84"/>
       <c r="B382" s="13"/>
       <c r="C382" s="14"/>
@@ -12519,7 +12820,7 @@
       <c r="Z382" s="13"/>
       <c r="AA382" s="13"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A383" s="84"/>
       <c r="B383" s="13"/>
       <c r="C383" s="14"/>
@@ -12548,7 +12849,7 @@
       <c r="Z383" s="13"/>
       <c r="AA383" s="13"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A384" s="84"/>
       <c r="B384" s="13"/>
       <c r="C384" s="14"/>
@@ -12577,7 +12878,7 @@
       <c r="Z384" s="13"/>
       <c r="AA384" s="13"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="84"/>
       <c r="B385" s="13"/>
       <c r="C385" s="14"/>
@@ -12606,7 +12907,7 @@
       <c r="Z385" s="13"/>
       <c r="AA385" s="13"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A386" s="84"/>
       <c r="B386" s="13"/>
       <c r="C386" s="14"/>
@@ -12635,7 +12936,7 @@
       <c r="Z386" s="13"/>
       <c r="AA386" s="13"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A387" s="84"/>
       <c r="B387" s="13"/>
       <c r="C387" s="14"/>
@@ -12664,7 +12965,7 @@
       <c r="Z387" s="13"/>
       <c r="AA387" s="13"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="84"/>
       <c r="B388" s="13"/>
       <c r="C388" s="14"/>
@@ -12693,7 +12994,7 @@
       <c r="Z388" s="13"/>
       <c r="AA388" s="13"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A389" s="84"/>
       <c r="B389" s="13"/>
       <c r="C389" s="14"/>
@@ -12722,7 +13023,7 @@
       <c r="Z389" s="13"/>
       <c r="AA389" s="13"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A390" s="84"/>
       <c r="B390" s="13"/>
       <c r="C390" s="14"/>
@@ -12751,7 +13052,7 @@
       <c r="Z390" s="13"/>
       <c r="AA390" s="13"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A391" s="84"/>
       <c r="B391" s="13"/>
       <c r="C391" s="14"/>
@@ -12780,7 +13081,7 @@
       <c r="Z391" s="13"/>
       <c r="AA391" s="13"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A392" s="84"/>
       <c r="B392" s="13"/>
       <c r="C392" s="14"/>
@@ -12809,7 +13110,7 @@
       <c r="Z392" s="13"/>
       <c r="AA392" s="13"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A393" s="84"/>
       <c r="B393" s="13"/>
       <c r="C393" s="14"/>
@@ -12838,7 +13139,7 @@
       <c r="Z393" s="13"/>
       <c r="AA393" s="13"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A394" s="84"/>
       <c r="B394" s="13"/>
       <c r="C394" s="14"/>
@@ -12867,7 +13168,7 @@
       <c r="Z394" s="13"/>
       <c r="AA394" s="13"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A395" s="84"/>
       <c r="B395" s="13"/>
       <c r="C395" s="14"/>
@@ -12896,7 +13197,7 @@
       <c r="Z395" s="13"/>
       <c r="AA395" s="13"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A396" s="84"/>
       <c r="B396" s="13"/>
       <c r="C396" s="14"/>
@@ -12925,7 +13226,7 @@
       <c r="Z396" s="13"/>
       <c r="AA396" s="13"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A397" s="84"/>
       <c r="B397" s="13"/>
       <c r="C397" s="14"/>
@@ -12954,7 +13255,7 @@
       <c r="Z397" s="13"/>
       <c r="AA397" s="13"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A398" s="84"/>
       <c r="B398" s="13"/>
       <c r="C398" s="14"/>
@@ -12983,7 +13284,7 @@
       <c r="Z398" s="13"/>
       <c r="AA398" s="13"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="84"/>
       <c r="B399" s="13"/>
       <c r="C399" s="14"/>
@@ -13012,7 +13313,7 @@
       <c r="Z399" s="13"/>
       <c r="AA399" s="13"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A400" s="84"/>
       <c r="B400" s="13"/>
       <c r="C400" s="14"/>
@@ -13041,7 +13342,7 @@
       <c r="Z400" s="13"/>
       <c r="AA400" s="13"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="84"/>
       <c r="B401" s="13"/>
       <c r="C401" s="14"/>
@@ -13070,7 +13371,7 @@
       <c r="Z401" s="13"/>
       <c r="AA401" s="13"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A402" s="84"/>
       <c r="B402" s="13"/>
       <c r="C402" s="14"/>
@@ -13099,7 +13400,7 @@
       <c r="Z402" s="13"/>
       <c r="AA402" s="13"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A403" s="84"/>
       <c r="B403" s="13"/>
       <c r="C403" s="14"/>
@@ -13128,7 +13429,7 @@
       <c r="Z403" s="13"/>
       <c r="AA403" s="13"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A404" s="84"/>
       <c r="B404" s="13"/>
       <c r="C404" s="14"/>
@@ -13157,7 +13458,7 @@
       <c r="Z404" s="13"/>
       <c r="AA404" s="13"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A405" s="84"/>
       <c r="B405" s="13"/>
       <c r="C405" s="14"/>
@@ -13186,7 +13487,7 @@
       <c r="Z405" s="13"/>
       <c r="AA405" s="13"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A406" s="84"/>
       <c r="B406" s="13"/>
       <c r="C406" s="14"/>
@@ -13215,7 +13516,7 @@
       <c r="Z406" s="13"/>
       <c r="AA406" s="13"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A407" s="84"/>
       <c r="B407" s="13"/>
       <c r="C407" s="14"/>
@@ -13244,7 +13545,7 @@
       <c r="Z407" s="13"/>
       <c r="AA407" s="13"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A408" s="84"/>
       <c r="B408" s="13"/>
       <c r="C408" s="14"/>
@@ -13273,7 +13574,7 @@
       <c r="Z408" s="13"/>
       <c r="AA408" s="13"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A409" s="84"/>
       <c r="B409" s="13"/>
       <c r="C409" s="14"/>
@@ -13302,7 +13603,7 @@
       <c r="Z409" s="13"/>
       <c r="AA409" s="13"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A410" s="84"/>
       <c r="B410" s="13"/>
       <c r="C410" s="14"/>
@@ -13331,7 +13632,7 @@
       <c r="Z410" s="13"/>
       <c r="AA410" s="13"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A411" s="84"/>
       <c r="B411" s="13"/>
       <c r="C411" s="14"/>
@@ -13360,7 +13661,7 @@
       <c r="Z411" s="13"/>
       <c r="AA411" s="13"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A412" s="84"/>
       <c r="B412" s="13"/>
       <c r="C412" s="14"/>
@@ -13389,7 +13690,7 @@
       <c r="Z412" s="13"/>
       <c r="AA412" s="13"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A413" s="84"/>
       <c r="B413" s="13"/>
       <c r="C413" s="14"/>
@@ -13418,7 +13719,7 @@
       <c r="Z413" s="13"/>
       <c r="AA413" s="13"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A414" s="84"/>
       <c r="B414" s="13"/>
       <c r="C414" s="14"/>
@@ -13447,7 +13748,7 @@
       <c r="Z414" s="13"/>
       <c r="AA414" s="13"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A415" s="84"/>
       <c r="B415" s="13"/>
       <c r="C415" s="14"/>
@@ -13476,7 +13777,7 @@
       <c r="Z415" s="13"/>
       <c r="AA415" s="13"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A416" s="84"/>
       <c r="B416" s="13"/>
       <c r="C416" s="14"/>
@@ -13505,7 +13806,7 @@
       <c r="Z416" s="13"/>
       <c r="AA416" s="13"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A417" s="84"/>
       <c r="B417" s="13"/>
       <c r="C417" s="14"/>
@@ -13534,7 +13835,7 @@
       <c r="Z417" s="13"/>
       <c r="AA417" s="13"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A418" s="84"/>
       <c r="B418" s="13"/>
       <c r="C418" s="14"/>
@@ -13563,7 +13864,7 @@
       <c r="Z418" s="13"/>
       <c r="AA418" s="13"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A419" s="84"/>
       <c r="B419" s="13"/>
       <c r="C419" s="14"/>
@@ -13592,7 +13893,7 @@
       <c r="Z419" s="13"/>
       <c r="AA419" s="13"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A420" s="84"/>
       <c r="B420" s="13"/>
       <c r="C420" s="14"/>
@@ -13621,7 +13922,7 @@
       <c r="Z420" s="13"/>
       <c r="AA420" s="13"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A421" s="84"/>
       <c r="B421" s="13"/>
       <c r="C421" s="14"/>
@@ -13650,7 +13951,7 @@
       <c r="Z421" s="13"/>
       <c r="AA421" s="13"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A422" s="84"/>
       <c r="B422" s="13"/>
       <c r="C422" s="14"/>
@@ -13679,7 +13980,7 @@
       <c r="Z422" s="13"/>
       <c r="AA422" s="13"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A423" s="84"/>
       <c r="B423" s="13"/>
       <c r="C423" s="14"/>
@@ -13708,7 +14009,7 @@
       <c r="Z423" s="13"/>
       <c r="AA423" s="13"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A424" s="84"/>
       <c r="B424" s="13"/>
       <c r="C424" s="14"/>
@@ -13737,7 +14038,7 @@
       <c r="Z424" s="13"/>
       <c r="AA424" s="13"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A425" s="84"/>
       <c r="B425" s="13"/>
       <c r="C425" s="14"/>
@@ -13766,7 +14067,7 @@
       <c r="Z425" s="13"/>
       <c r="AA425" s="13"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A426" s="84"/>
       <c r="B426" s="13"/>
       <c r="C426" s="14"/>
@@ -13795,7 +14096,7 @@
       <c r="Z426" s="13"/>
       <c r="AA426" s="13"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A427" s="84"/>
       <c r="B427" s="13"/>
       <c r="C427" s="14"/>
@@ -13824,7 +14125,7 @@
       <c r="Z427" s="13"/>
       <c r="AA427" s="13"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A428" s="84"/>
       <c r="B428" s="13"/>
       <c r="C428" s="14"/>
@@ -13853,7 +14154,7 @@
       <c r="Z428" s="13"/>
       <c r="AA428" s="13"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A429" s="84"/>
       <c r="B429" s="13"/>
       <c r="C429" s="14"/>
@@ -13882,7 +14183,7 @@
       <c r="Z429" s="13"/>
       <c r="AA429" s="13"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A430" s="84"/>
       <c r="B430" s="13"/>
       <c r="C430" s="14"/>
@@ -13911,7 +14212,7 @@
       <c r="Z430" s="13"/>
       <c r="AA430" s="13"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A431" s="84"/>
       <c r="B431" s="13"/>
       <c r="C431" s="14"/>
@@ -13940,7 +14241,7 @@
       <c r="Z431" s="13"/>
       <c r="AA431" s="13"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A432" s="84"/>
       <c r="B432" s="13"/>
       <c r="C432" s="14"/>
@@ -13969,7 +14270,7 @@
       <c r="Z432" s="13"/>
       <c r="AA432" s="13"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A433" s="84"/>
       <c r="B433" s="13"/>
       <c r="C433" s="14"/>
@@ -13998,7 +14299,7 @@
       <c r="Z433" s="13"/>
       <c r="AA433" s="13"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A434" s="84"/>
       <c r="B434" s="13"/>
       <c r="C434" s="14"/>
@@ -14027,7 +14328,7 @@
       <c r="Z434" s="13"/>
       <c r="AA434" s="13"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A435" s="84"/>
       <c r="B435" s="13"/>
       <c r="C435" s="14"/>
@@ -14056,7 +14357,7 @@
       <c r="Z435" s="13"/>
       <c r="AA435" s="13"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A436" s="84"/>
       <c r="B436" s="13"/>
       <c r="C436" s="14"/>
@@ -14085,7 +14386,7 @@
       <c r="Z436" s="13"/>
       <c r="AA436" s="13"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A437" s="84"/>
       <c r="B437" s="13"/>
       <c r="C437" s="14"/>
@@ -14114,7 +14415,7 @@
       <c r="Z437" s="13"/>
       <c r="AA437" s="13"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A438" s="84"/>
       <c r="B438" s="13"/>
       <c r="C438" s="14"/>
@@ -14143,7 +14444,7 @@
       <c r="Z438" s="13"/>
       <c r="AA438" s="13"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A439" s="84"/>
       <c r="B439" s="13"/>
       <c r="C439" s="14"/>
@@ -14172,7 +14473,7 @@
       <c r="Z439" s="13"/>
       <c r="AA439" s="13"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A440" s="84"/>
       <c r="B440" s="13"/>
       <c r="C440" s="14"/>
@@ -14201,7 +14502,7 @@
       <c r="Z440" s="13"/>
       <c r="AA440" s="13"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A441" s="84"/>
       <c r="B441" s="13"/>
       <c r="C441" s="14"/>
@@ -14230,7 +14531,7 @@
       <c r="Z441" s="13"/>
       <c r="AA441" s="13"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A442" s="84"/>
       <c r="B442" s="13"/>
       <c r="C442" s="14"/>
@@ -14259,7 +14560,7 @@
       <c r="Z442" s="13"/>
       <c r="AA442" s="13"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A443" s="84"/>
       <c r="B443" s="13"/>
       <c r="C443" s="14"/>
@@ -14288,7 +14589,7 @@
       <c r="Z443" s="13"/>
       <c r="AA443" s="13"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A444" s="84"/>
       <c r="B444" s="13"/>
       <c r="C444" s="14"/>
@@ -14317,7 +14618,7 @@
       <c r="Z444" s="13"/>
       <c r="AA444" s="13"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A445" s="84"/>
       <c r="B445" s="13"/>
       <c r="C445" s="14"/>
@@ -14346,7 +14647,7 @@
       <c r="Z445" s="13"/>
       <c r="AA445" s="13"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A446" s="84"/>
       <c r="B446" s="13"/>
       <c r="C446" s="14"/>
@@ -14375,7 +14676,7 @@
       <c r="Z446" s="13"/>
       <c r="AA446" s="13"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A447" s="84"/>
       <c r="B447" s="13"/>
       <c r="C447" s="14"/>
@@ -14404,7 +14705,7 @@
       <c r="Z447" s="13"/>
       <c r="AA447" s="13"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A448" s="84"/>
       <c r="B448" s="13"/>
       <c r="C448" s="14"/>
@@ -14433,7 +14734,7 @@
       <c r="Z448" s="13"/>
       <c r="AA448" s="13"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A449" s="84"/>
       <c r="B449" s="13"/>
       <c r="C449" s="14"/>
@@ -14462,7 +14763,7 @@
       <c r="Z449" s="13"/>
       <c r="AA449" s="13"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A450" s="84"/>
       <c r="B450" s="13"/>
       <c r="C450" s="14"/>
@@ -14491,7 +14792,7 @@
       <c r="Z450" s="13"/>
       <c r="AA450" s="13"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A451" s="84"/>
       <c r="B451" s="13"/>
       <c r="C451" s="14"/>
@@ -14520,7 +14821,7 @@
       <c r="Z451" s="13"/>
       <c r="AA451" s="13"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A452" s="84"/>
       <c r="B452" s="13"/>
       <c r="C452" s="14"/>
@@ -14549,7 +14850,7 @@
       <c r="Z452" s="13"/>
       <c r="AA452" s="13"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A453" s="84"/>
       <c r="B453" s="13"/>
       <c r="C453" s="14"/>
@@ -14578,7 +14879,7 @@
       <c r="Z453" s="13"/>
       <c r="AA453" s="13"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A454" s="84"/>
       <c r="B454" s="13"/>
       <c r="C454" s="14"/>
@@ -14607,7 +14908,7 @@
       <c r="Z454" s="13"/>
       <c r="AA454" s="13"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A455" s="84"/>
       <c r="B455" s="13"/>
       <c r="C455" s="14"/>
@@ -14636,7 +14937,7 @@
       <c r="Z455" s="13"/>
       <c r="AA455" s="13"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A456" s="84"/>
       <c r="B456" s="13"/>
       <c r="C456" s="14"/>
@@ -14665,7 +14966,7 @@
       <c r="Z456" s="13"/>
       <c r="AA456" s="13"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A457" s="84"/>
       <c r="B457" s="13"/>
       <c r="C457" s="14"/>
@@ -14694,7 +14995,7 @@
       <c r="Z457" s="13"/>
       <c r="AA457" s="13"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A458" s="84"/>
       <c r="B458" s="13"/>
       <c r="C458" s="14"/>
@@ -14723,7 +15024,7 @@
       <c r="Z458" s="13"/>
       <c r="AA458" s="13"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A459" s="84"/>
       <c r="B459" s="13"/>
       <c r="C459" s="14"/>
@@ -14752,7 +15053,7 @@
       <c r="Z459" s="13"/>
       <c r="AA459" s="13"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A460" s="84"/>
       <c r="B460" s="13"/>
       <c r="C460" s="14"/>
@@ -14781,7 +15082,7 @@
       <c r="Z460" s="13"/>
       <c r="AA460" s="13"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A461" s="84"/>
       <c r="B461" s="13"/>
       <c r="C461" s="14"/>
@@ -14810,7 +15111,7 @@
       <c r="Z461" s="13"/>
       <c r="AA461" s="13"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A462" s="84"/>
       <c r="B462" s="13"/>
       <c r="C462" s="14"/>
@@ -14839,7 +15140,7 @@
       <c r="Z462" s="13"/>
       <c r="AA462" s="13"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A463" s="84"/>
       <c r="B463" s="13"/>
       <c r="C463" s="14"/>
@@ -14868,7 +15169,7 @@
       <c r="Z463" s="13"/>
       <c r="AA463" s="13"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A464" s="84"/>
       <c r="B464" s="13"/>
       <c r="C464" s="14"/>
@@ -14897,7 +15198,7 @@
       <c r="Z464" s="13"/>
       <c r="AA464" s="13"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A465" s="84"/>
       <c r="B465" s="13"/>
       <c r="C465" s="14"/>
@@ -14926,7 +15227,7 @@
       <c r="Z465" s="13"/>
       <c r="AA465" s="13"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A466" s="84"/>
       <c r="B466" s="13"/>
       <c r="C466" s="14"/>
@@ -14955,7 +15256,7 @@
       <c r="Z466" s="13"/>
       <c r="AA466" s="13"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A467" s="84"/>
       <c r="B467" s="13"/>
       <c r="C467" s="14"/>
@@ -14984,7 +15285,7 @@
       <c r="Z467" s="13"/>
       <c r="AA467" s="13"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A468" s="84"/>
       <c r="B468" s="13"/>
       <c r="C468" s="14"/>
@@ -15013,7 +15314,7 @@
       <c r="Z468" s="13"/>
       <c r="AA468" s="13"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A469" s="84"/>
       <c r="B469" s="13"/>
       <c r="C469" s="14"/>
@@ -15042,7 +15343,7 @@
       <c r="Z469" s="13"/>
       <c r="AA469" s="13"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A470" s="84"/>
       <c r="B470" s="13"/>
       <c r="C470" s="14"/>
@@ -15071,7 +15372,7 @@
       <c r="Z470" s="13"/>
       <c r="AA470" s="13"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A471" s="84"/>
       <c r="B471" s="13"/>
       <c r="C471" s="14"/>
@@ -15100,7 +15401,7 @@
       <c r="Z471" s="13"/>
       <c r="AA471" s="13"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A472" s="84"/>
       <c r="B472" s="13"/>
       <c r="C472" s="14"/>
@@ -15129,7 +15430,7 @@
       <c r="Z472" s="13"/>
       <c r="AA472" s="13"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A473" s="84"/>
       <c r="B473" s="13"/>
       <c r="C473" s="14"/>
@@ -15158,7 +15459,7 @@
       <c r="Z473" s="13"/>
       <c r="AA473" s="13"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A474" s="84"/>
       <c r="B474" s="13"/>
       <c r="C474" s="14"/>
@@ -15187,7 +15488,7 @@
       <c r="Z474" s="13"/>
       <c r="AA474" s="13"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A475" s="84"/>
       <c r="B475" s="13"/>
       <c r="C475" s="14"/>
@@ -15216,7 +15517,7 @@
       <c r="Z475" s="13"/>
       <c r="AA475" s="13"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A476" s="84"/>
       <c r="B476" s="13"/>
       <c r="C476" s="14"/>
@@ -15245,7 +15546,7 @@
       <c r="Z476" s="13"/>
       <c r="AA476" s="13"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A477" s="84"/>
       <c r="B477" s="13"/>
       <c r="C477" s="14"/>
@@ -15274,7 +15575,7 @@
       <c r="Z477" s="13"/>
       <c r="AA477" s="13"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A478" s="84"/>
       <c r="B478" s="13"/>
       <c r="C478" s="14"/>
@@ -15303,7 +15604,7 @@
       <c r="Z478" s="13"/>
       <c r="AA478" s="13"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A479" s="84"/>
       <c r="B479" s="13"/>
       <c r="C479" s="14"/>
@@ -15332,7 +15633,7 @@
       <c r="Z479" s="13"/>
       <c r="AA479" s="13"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A480" s="84"/>
       <c r="B480" s="13"/>
       <c r="C480" s="14"/>
@@ -15361,7 +15662,7 @@
       <c r="Z480" s="13"/>
       <c r="AA480" s="13"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A481" s="84"/>
       <c r="B481" s="13"/>
       <c r="C481" s="14"/>
@@ -15390,7 +15691,7 @@
       <c r="Z481" s="13"/>
       <c r="AA481" s="13"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A482" s="84"/>
       <c r="B482" s="13"/>
       <c r="C482" s="14"/>
@@ -15419,7 +15720,7 @@
       <c r="Z482" s="13"/>
       <c r="AA482" s="13"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A483" s="84"/>
       <c r="B483" s="13"/>
       <c r="C483" s="14"/>
@@ -15448,7 +15749,7 @@
       <c r="Z483" s="13"/>
       <c r="AA483" s="13"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A484" s="84"/>
       <c r="B484" s="13"/>
       <c r="C484" s="14"/>
@@ -15477,7 +15778,7 @@
       <c r="Z484" s="13"/>
       <c r="AA484" s="13"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A485" s="84"/>
       <c r="B485" s="13"/>
       <c r="C485" s="14"/>
@@ -15506,7 +15807,7 @@
       <c r="Z485" s="13"/>
       <c r="AA485" s="13"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A486" s="84"/>
       <c r="B486" s="13"/>
       <c r="C486" s="14"/>
@@ -15535,7 +15836,7 @@
       <c r="Z486" s="13"/>
       <c r="AA486" s="13"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A487" s="84"/>
       <c r="B487" s="13"/>
       <c r="C487" s="14"/>
@@ -15564,7 +15865,7 @@
       <c r="Z487" s="13"/>
       <c r="AA487" s="13"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A488" s="84"/>
       <c r="B488" s="13"/>
       <c r="C488" s="14"/>
@@ -15593,7 +15894,7 @@
       <c r="Z488" s="13"/>
       <c r="AA488" s="13"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A489" s="84"/>
       <c r="B489" s="13"/>
       <c r="C489" s="14"/>
@@ -15622,7 +15923,7 @@
       <c r="Z489" s="13"/>
       <c r="AA489" s="13"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A490" s="84"/>
       <c r="B490" s="13"/>
       <c r="C490" s="14"/>
@@ -15651,7 +15952,7 @@
       <c r="Z490" s="13"/>
       <c r="AA490" s="13"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A491" s="84"/>
       <c r="B491" s="13"/>
       <c r="C491" s="14"/>
@@ -15680,7 +15981,7 @@
       <c r="Z491" s="13"/>
       <c r="AA491" s="13"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A492" s="84"/>
       <c r="B492" s="13"/>
       <c r="C492" s="14"/>
@@ -15709,7 +16010,7 @@
       <c r="Z492" s="13"/>
       <c r="AA492" s="13"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A493" s="84"/>
       <c r="B493" s="13"/>
       <c r="C493" s="14"/>
@@ -15738,7 +16039,7 @@
       <c r="Z493" s="13"/>
       <c r="AA493" s="13"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A494" s="84"/>
       <c r="B494" s="13"/>
       <c r="C494" s="14"/>
@@ -15767,7 +16068,7 @@
       <c r="Z494" s="13"/>
       <c r="AA494" s="13"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A495" s="84"/>
       <c r="B495" s="13"/>
       <c r="C495" s="14"/>
@@ -15796,7 +16097,7 @@
       <c r="Z495" s="13"/>
       <c r="AA495" s="13"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A496" s="84"/>
       <c r="B496" s="13"/>
       <c r="C496" s="14"/>
@@ -15825,7 +16126,7 @@
       <c r="Z496" s="13"/>
       <c r="AA496" s="13"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A497" s="84"/>
       <c r="B497" s="13"/>
       <c r="C497" s="14"/>
@@ -15854,7 +16155,7 @@
       <c r="Z497" s="13"/>
       <c r="AA497" s="13"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A498" s="84"/>
       <c r="B498" s="13"/>
       <c r="C498" s="14"/>
@@ -15883,7 +16184,7 @@
       <c r="Z498" s="13"/>
       <c r="AA498" s="13"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A499" s="84"/>
       <c r="B499" s="13"/>
       <c r="C499" s="14"/>
@@ -15912,7 +16213,7 @@
       <c r="Z499" s="13"/>
       <c r="AA499" s="13"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A500" s="84"/>
       <c r="B500" s="13"/>
       <c r="C500" s="14"/>
@@ -15941,7 +16242,7 @@
       <c r="Z500" s="13"/>
       <c r="AA500" s="13"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A501" s="84"/>
       <c r="B501" s="13"/>
       <c r="C501" s="14"/>
@@ -15970,7 +16271,7 @@
       <c r="Z501" s="13"/>
       <c r="AA501" s="13"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A502" s="84"/>
       <c r="B502" s="13"/>
       <c r="C502" s="14"/>
@@ -15999,7 +16300,7 @@
       <c r="Z502" s="13"/>
       <c r="AA502" s="13"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A503" s="84"/>
       <c r="B503" s="13"/>
       <c r="C503" s="14"/>
@@ -16028,7 +16329,7 @@
       <c r="Z503" s="13"/>
       <c r="AA503" s="13"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A504" s="84"/>
       <c r="B504" s="13"/>
       <c r="C504" s="14"/>
@@ -16057,7 +16358,7 @@
       <c r="Z504" s="13"/>
       <c r="AA504" s="13"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A505" s="84"/>
       <c r="B505" s="13"/>
       <c r="C505" s="14"/>
@@ -16086,7 +16387,7 @@
       <c r="Z505" s="13"/>
       <c r="AA505" s="13"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A506" s="84"/>
       <c r="B506" s="13"/>
       <c r="C506" s="14"/>
@@ -16115,7 +16416,7 @@
       <c r="Z506" s="13"/>
       <c r="AA506" s="13"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A507" s="84"/>
       <c r="B507" s="13"/>
       <c r="C507" s="14"/>
@@ -16144,7 +16445,7 @@
       <c r="Z507" s="13"/>
       <c r="AA507" s="13"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A508" s="84"/>
       <c r="B508" s="13"/>
       <c r="C508" s="14"/>
@@ -16173,7 +16474,7 @@
       <c r="Z508" s="13"/>
       <c r="AA508" s="13"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A509" s="84"/>
       <c r="B509" s="13"/>
       <c r="C509" s="14"/>
@@ -16202,7 +16503,7 @@
       <c r="Z509" s="13"/>
       <c r="AA509" s="13"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A510" s="84"/>
       <c r="B510" s="13"/>
       <c r="C510" s="14"/>
@@ -16231,7 +16532,7 @@
       <c r="Z510" s="13"/>
       <c r="AA510" s="13"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A511" s="84"/>
       <c r="B511" s="13"/>
       <c r="C511" s="14"/>
@@ -16260,7 +16561,7 @@
       <c r="Z511" s="13"/>
       <c r="AA511" s="13"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A512" s="84"/>
       <c r="B512" s="13"/>
       <c r="C512" s="14"/>
@@ -16289,7 +16590,7 @@
       <c r="Z512" s="13"/>
       <c r="AA512" s="13"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A513" s="84"/>
       <c r="B513" s="13"/>
       <c r="C513" s="14"/>
@@ -16318,7 +16619,7 @@
       <c r="Z513" s="13"/>
       <c r="AA513" s="13"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A514" s="84"/>
       <c r="B514" s="13"/>
       <c r="C514" s="14"/>
@@ -16347,7 +16648,7 @@
       <c r="Z514" s="13"/>
       <c r="AA514" s="13"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A515" s="84"/>
       <c r="B515" s="13"/>
       <c r="C515" s="14"/>
@@ -16376,7 +16677,7 @@
       <c r="Z515" s="13"/>
       <c r="AA515" s="13"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A516" s="84"/>
       <c r="B516" s="13"/>
       <c r="C516" s="14"/>
@@ -16405,7 +16706,7 @@
       <c r="Z516" s="13"/>
       <c r="AA516" s="13"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A517" s="84"/>
       <c r="B517" s="13"/>
       <c r="C517" s="14"/>
@@ -16434,7 +16735,7 @@
       <c r="Z517" s="13"/>
       <c r="AA517" s="13"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A518" s="84"/>
       <c r="B518" s="13"/>
       <c r="C518" s="14"/>
@@ -16463,7 +16764,7 @@
       <c r="Z518" s="13"/>
       <c r="AA518" s="13"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A519" s="84"/>
       <c r="B519" s="13"/>
       <c r="C519" s="14"/>
@@ -16492,7 +16793,7 @@
       <c r="Z519" s="13"/>
       <c r="AA519" s="13"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A520" s="84"/>
       <c r="B520" s="13"/>
       <c r="C520" s="14"/>
@@ -16521,7 +16822,7 @@
       <c r="Z520" s="13"/>
       <c r="AA520" s="13"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A521" s="84"/>
       <c r="B521" s="13"/>
       <c r="C521" s="14"/>
@@ -16550,7 +16851,7 @@
       <c r="Z521" s="13"/>
       <c r="AA521" s="13"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A522" s="84"/>
       <c r="B522" s="13"/>
       <c r="C522" s="14"/>
@@ -16579,7 +16880,7 @@
       <c r="Z522" s="13"/>
       <c r="AA522" s="13"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A523" s="84"/>
       <c r="B523" s="13"/>
       <c r="C523" s="14"/>
@@ -16608,7 +16909,7 @@
       <c r="Z523" s="13"/>
       <c r="AA523" s="13"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A524" s="84"/>
       <c r="B524" s="13"/>
       <c r="C524" s="14"/>
@@ -16637,7 +16938,7 @@
       <c r="Z524" s="13"/>
       <c r="AA524" s="13"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A525" s="84"/>
       <c r="B525" s="13"/>
       <c r="C525" s="14"/>
@@ -16666,7 +16967,7 @@
       <c r="Z525" s="13"/>
       <c r="AA525" s="13"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A526" s="84"/>
       <c r="B526" s="13"/>
       <c r="C526" s="14"/>
@@ -16695,7 +16996,7 @@
       <c r="Z526" s="13"/>
       <c r="AA526" s="13"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A527" s="84"/>
       <c r="B527" s="13"/>
       <c r="C527" s="14"/>
@@ -16724,7 +17025,7 @@
       <c r="Z527" s="13"/>
       <c r="AA527" s="13"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A528" s="84"/>
       <c r="B528" s="13"/>
       <c r="C528" s="14"/>
@@ -16753,7 +17054,7 @@
       <c r="Z528" s="13"/>
       <c r="AA528" s="13"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A529" s="84"/>
       <c r="B529" s="13"/>
       <c r="C529" s="14"/>
@@ -16782,7 +17083,7 @@
       <c r="Z529" s="13"/>
       <c r="AA529" s="13"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A530" s="84"/>
       <c r="B530" s="13"/>
       <c r="C530" s="14"/>
@@ -16811,7 +17112,7 @@
       <c r="Z530" s="13"/>
       <c r="AA530" s="13"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A531" s="84"/>
       <c r="B531" s="13"/>
       <c r="C531" s="14"/>
@@ -16840,7 +17141,7 @@
       <c r="Z531" s="13"/>
       <c r="AA531" s="13"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A532" s="84"/>
       <c r="B532" s="13"/>
       <c r="C532" s="14"/>
@@ -16869,7 +17170,7 @@
       <c r="Z532" s="13"/>
       <c r="AA532" s="13"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A533" s="84"/>
       <c r="B533" s="13"/>
       <c r="C533" s="14"/>
@@ -16898,7 +17199,7 @@
       <c r="Z533" s="13"/>
       <c r="AA533" s="13"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A534" s="84"/>
       <c r="B534" s="13"/>
       <c r="C534" s="14"/>
@@ -16927,7 +17228,7 @@
       <c r="Z534" s="13"/>
       <c r="AA534" s="13"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A535" s="84"/>
       <c r="B535" s="13"/>
       <c r="C535" s="14"/>
@@ -16956,7 +17257,7 @@
       <c r="Z535" s="13"/>
       <c r="AA535" s="13"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A536" s="84"/>
       <c r="B536" s="13"/>
       <c r="C536" s="14"/>
@@ -16985,7 +17286,7 @@
       <c r="Z536" s="13"/>
       <c r="AA536" s="13"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A537" s="84"/>
       <c r="B537" s="13"/>
       <c r="C537" s="14"/>
@@ -17014,7 +17315,7 @@
       <c r="Z537" s="13"/>
       <c r="AA537" s="13"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A538" s="84"/>
       <c r="B538" s="13"/>
       <c r="C538" s="14"/>
@@ -17043,7 +17344,7 @@
       <c r="Z538" s="13"/>
       <c r="AA538" s="13"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A539" s="84"/>
       <c r="B539" s="13"/>
       <c r="C539" s="14"/>
@@ -17072,7 +17373,7 @@
       <c r="Z539" s="13"/>
       <c r="AA539" s="13"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A540" s="84"/>
       <c r="B540" s="13"/>
       <c r="C540" s="14"/>
@@ -17101,7 +17402,7 @@
       <c r="Z540" s="13"/>
       <c r="AA540" s="13"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A541" s="84"/>
       <c r="B541" s="13"/>
       <c r="C541" s="14"/>
@@ -17130,7 +17431,7 @@
       <c r="Z541" s="13"/>
       <c r="AA541" s="13"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A542" s="84"/>
       <c r="B542" s="13"/>
       <c r="C542" s="14"/>
@@ -17159,7 +17460,7 @@
       <c r="Z542" s="13"/>
       <c r="AA542" s="13"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A543" s="84"/>
       <c r="B543" s="13"/>
       <c r="C543" s="14"/>
@@ -17188,7 +17489,7 @@
       <c r="Z543" s="13"/>
       <c r="AA543" s="13"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A544" s="84"/>
       <c r="B544" s="13"/>
       <c r="C544" s="14"/>
@@ -17217,7 +17518,7 @@
       <c r="Z544" s="13"/>
       <c r="AA544" s="13"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A545" s="84"/>
       <c r="B545" s="13"/>
       <c r="C545" s="14"/>
@@ -17246,7 +17547,7 @@
       <c r="Z545" s="13"/>
       <c r="AA545" s="13"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A546" s="84"/>
       <c r="B546" s="13"/>
       <c r="C546" s="14"/>
@@ -17275,7 +17576,7 @@
       <c r="Z546" s="13"/>
       <c r="AA546" s="13"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A547" s="84"/>
       <c r="B547" s="13"/>
       <c r="C547" s="14"/>
@@ -17304,7 +17605,7 @@
       <c r="Z547" s="13"/>
       <c r="AA547" s="13"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A548" s="84"/>
       <c r="B548" s="13"/>
       <c r="C548" s="14"/>
@@ -17333,7 +17634,7 @@
       <c r="Z548" s="13"/>
       <c r="AA548" s="13"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A549" s="84"/>
       <c r="B549" s="13"/>
       <c r="C549" s="14"/>
@@ -17362,7 +17663,7 @@
       <c r="Z549" s="13"/>
       <c r="AA549" s="13"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A550" s="84"/>
       <c r="B550" s="13"/>
       <c r="C550" s="14"/>
@@ -17391,7 +17692,7 @@
       <c r="Z550" s="13"/>
       <c r="AA550" s="13"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A551" s="84"/>
       <c r="B551" s="13"/>
       <c r="C551" s="14"/>
@@ -17420,7 +17721,7 @@
       <c r="Z551" s="13"/>
       <c r="AA551" s="13"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A552" s="84"/>
       <c r="B552" s="13"/>
       <c r="C552" s="14"/>
@@ -17449,7 +17750,7 @@
       <c r="Z552" s="13"/>
       <c r="AA552" s="13"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A553" s="84"/>
       <c r="B553" s="13"/>
       <c r="C553" s="14"/>
@@ -17478,7 +17779,7 @@
       <c r="Z553" s="13"/>
       <c r="AA553" s="13"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A554" s="84"/>
       <c r="B554" s="13"/>
       <c r="C554" s="14"/>
@@ -17507,7 +17808,7 @@
       <c r="Z554" s="13"/>
       <c r="AA554" s="13"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A555" s="84"/>
       <c r="B555" s="13"/>
       <c r="C555" s="14"/>
@@ -17536,7 +17837,7 @@
       <c r="Z555" s="13"/>
       <c r="AA555" s="13"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A556" s="84"/>
       <c r="B556" s="13"/>
       <c r="C556" s="14"/>
@@ -17565,7 +17866,7 @@
       <c r="Z556" s="13"/>
       <c r="AA556" s="13"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A557" s="84"/>
       <c r="B557" s="13"/>
       <c r="C557" s="14"/>
@@ -17594,7 +17895,7 @@
       <c r="Z557" s="13"/>
       <c r="AA557" s="13"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A558" s="84"/>
       <c r="B558" s="13"/>
       <c r="C558" s="14"/>
@@ -17623,7 +17924,7 @@
       <c r="Z558" s="13"/>
       <c r="AA558" s="13"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A559" s="84"/>
       <c r="B559" s="13"/>
       <c r="C559" s="14"/>
@@ -17652,7 +17953,7 @@
       <c r="Z559" s="13"/>
       <c r="AA559" s="13"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A560" s="84"/>
       <c r="B560" s="13"/>
       <c r="C560" s="14"/>
@@ -17681,7 +17982,7 @@
       <c r="Z560" s="13"/>
       <c r="AA560" s="13"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A561" s="84"/>
       <c r="B561" s="13"/>
       <c r="C561" s="14"/>
@@ -17710,7 +18011,7 @@
       <c r="Z561" s="13"/>
       <c r="AA561" s="13"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A562" s="84"/>
       <c r="B562" s="13"/>
       <c r="C562" s="14"/>
@@ -17739,7 +18040,7 @@
       <c r="Z562" s="13"/>
       <c r="AA562" s="13"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A563" s="84"/>
       <c r="B563" s="13"/>
       <c r="C563" s="14"/>
@@ -17768,7 +18069,7 @@
       <c r="Z563" s="13"/>
       <c r="AA563" s="13"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A564" s="84"/>
       <c r="B564" s="13"/>
       <c r="C564" s="14"/>
@@ -17797,7 +18098,7 @@
       <c r="Z564" s="13"/>
       <c r="AA564" s="13"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A565" s="84"/>
       <c r="B565" s="13"/>
       <c r="C565" s="14"/>
@@ -17826,7 +18127,7 @@
       <c r="Z565" s="13"/>
       <c r="AA565" s="13"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A566" s="84"/>
       <c r="B566" s="13"/>
       <c r="C566" s="14"/>
@@ -17855,7 +18156,7 @@
       <c r="Z566" s="13"/>
       <c r="AA566" s="13"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A567" s="84"/>
       <c r="B567" s="13"/>
       <c r="C567" s="14"/>
@@ -17884,7 +18185,7 @@
       <c r="Z567" s="13"/>
       <c r="AA567" s="13"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A568" s="84"/>
       <c r="B568" s="13"/>
       <c r="C568" s="14"/>
@@ -17913,7 +18214,7 @@
       <c r="Z568" s="13"/>
       <c r="AA568" s="13"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A569" s="84"/>
       <c r="B569" s="13"/>
       <c r="C569" s="14"/>
@@ -17942,7 +18243,7 @@
       <c r="Z569" s="13"/>
       <c r="AA569" s="13"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A570" s="84"/>
       <c r="B570" s="13"/>
       <c r="C570" s="14"/>
@@ -17971,7 +18272,7 @@
       <c r="Z570" s="13"/>
       <c r="AA570" s="13"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A571" s="84"/>
       <c r="B571" s="13"/>
       <c r="C571" s="14"/>
@@ -18000,7 +18301,7 @@
       <c r="Z571" s="13"/>
       <c r="AA571" s="13"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A572" s="84"/>
       <c r="B572" s="13"/>
       <c r="C572" s="14"/>
@@ -18029,7 +18330,7 @@
       <c r="Z572" s="13"/>
       <c r="AA572" s="13"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A573" s="84"/>
       <c r="B573" s="13"/>
       <c r="C573" s="14"/>
@@ -18058,7 +18359,7 @@
       <c r="Z573" s="13"/>
       <c r="AA573" s="13"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A574" s="84"/>
       <c r="B574" s="13"/>
       <c r="C574" s="14"/>
@@ -18087,7 +18388,7 @@
       <c r="Z574" s="13"/>
       <c r="AA574" s="13"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A575" s="84"/>
       <c r="B575" s="13"/>
       <c r="C575" s="14"/>
@@ -18116,7 +18417,7 @@
       <c r="Z575" s="13"/>
       <c r="AA575" s="13"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A576" s="84"/>
       <c r="B576" s="13"/>
       <c r="C576" s="14"/>
@@ -18145,7 +18446,7 @@
       <c r="Z576" s="13"/>
       <c r="AA576" s="13"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A577" s="84"/>
       <c r="B577" s="13"/>
       <c r="C577" s="14"/>
@@ -18174,7 +18475,7 @@
       <c r="Z577" s="13"/>
       <c r="AA577" s="13"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A578" s="84"/>
       <c r="B578" s="13"/>
       <c r="C578" s="14"/>
@@ -18203,7 +18504,7 @@
       <c r="Z578" s="13"/>
       <c r="AA578" s="13"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A579" s="84"/>
       <c r="B579" s="13"/>
       <c r="C579" s="14"/>
@@ -18232,7 +18533,7 @@
       <c r="Z579" s="13"/>
       <c r="AA579" s="13"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A580" s="84"/>
       <c r="B580" s="13"/>
       <c r="C580" s="14"/>
@@ -18261,7 +18562,7 @@
       <c r="Z580" s="13"/>
       <c r="AA580" s="13"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A581" s="84"/>
       <c r="B581" s="13"/>
       <c r="C581" s="14"/>
@@ -18290,7 +18591,7 @@
       <c r="Z581" s="13"/>
       <c r="AA581" s="13"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A582" s="84"/>
       <c r="B582" s="13"/>
       <c r="C582" s="14"/>
@@ -18319,7 +18620,7 @@
       <c r="Z582" s="13"/>
       <c r="AA582" s="13"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A583" s="84"/>
       <c r="B583" s="13"/>
       <c r="C583" s="14"/>
@@ -18348,7 +18649,7 @@
       <c r="Z583" s="13"/>
       <c r="AA583" s="13"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A584" s="84"/>
       <c r="B584" s="13"/>
       <c r="C584" s="14"/>
@@ -18377,7 +18678,7 @@
       <c r="Z584" s="13"/>
       <c r="AA584" s="13"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A585" s="84"/>
       <c r="B585" s="13"/>
       <c r="C585" s="14"/>
@@ -18406,7 +18707,7 @@
       <c r="Z585" s="13"/>
       <c r="AA585" s="13"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A586" s="84"/>
       <c r="B586" s="13"/>
       <c r="C586" s="14"/>
@@ -18435,7 +18736,7 @@
       <c r="Z586" s="13"/>
       <c r="AA586" s="13"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A587" s="84"/>
       <c r="B587" s="13"/>
       <c r="C587" s="14"/>
@@ -18464,7 +18765,7 @@
       <c r="Z587" s="13"/>
       <c r="AA587" s="13"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A588" s="84"/>
       <c r="B588" s="13"/>
       <c r="C588" s="14"/>
@@ -18493,7 +18794,7 @@
       <c r="Z588" s="13"/>
       <c r="AA588" s="13"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A589" s="84"/>
       <c r="B589" s="13"/>
       <c r="C589" s="14"/>
@@ -18522,7 +18823,7 @@
       <c r="Z589" s="13"/>
       <c r="AA589" s="13"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A590" s="84"/>
       <c r="B590" s="13"/>
       <c r="C590" s="14"/>
@@ -18551,7 +18852,7 @@
       <c r="Z590" s="13"/>
       <c r="AA590" s="13"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A591" s="84"/>
       <c r="B591" s="13"/>
       <c r="C591" s="14"/>
@@ -18580,7 +18881,7 @@
       <c r="Z591" s="13"/>
       <c r="AA591" s="13"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A592" s="84"/>
       <c r="B592" s="13"/>
       <c r="C592" s="14"/>
@@ -18609,7 +18910,7 @@
       <c r="Z592" s="13"/>
       <c r="AA592" s="13"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A593" s="84"/>
       <c r="B593" s="13"/>
       <c r="C593" s="14"/>
@@ -18638,7 +18939,7 @@
       <c r="Z593" s="13"/>
       <c r="AA593" s="13"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A594" s="84"/>
       <c r="B594" s="13"/>
       <c r="C594" s="14"/>
@@ -18667,7 +18968,7 @@
       <c r="Z594" s="13"/>
       <c r="AA594" s="13"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A595" s="84"/>
       <c r="B595" s="13"/>
       <c r="C595" s="14"/>
@@ -18696,7 +18997,7 @@
       <c r="Z595" s="13"/>
       <c r="AA595" s="13"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A596" s="84"/>
       <c r="B596" s="13"/>
       <c r="C596" s="14"/>
@@ -18725,7 +19026,7 @@
       <c r="Z596" s="13"/>
       <c r="AA596" s="13"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A597" s="84"/>
       <c r="B597" s="13"/>
       <c r="C597" s="14"/>
@@ -18754,7 +19055,7 @@
       <c r="Z597" s="13"/>
       <c r="AA597" s="13"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A598" s="84"/>
       <c r="B598" s="13"/>
       <c r="C598" s="14"/>
@@ -18783,7 +19084,7 @@
       <c r="Z598" s="13"/>
       <c r="AA598" s="13"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A599" s="84"/>
       <c r="B599" s="13"/>
       <c r="C599" s="14"/>
@@ -18812,7 +19113,7 @@
       <c r="Z599" s="13"/>
       <c r="AA599" s="13"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A600" s="84"/>
       <c r="B600" s="13"/>
       <c r="C600" s="14"/>
@@ -18841,7 +19142,7 @@
       <c r="Z600" s="13"/>
       <c r="AA600" s="13"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A601" s="84"/>
       <c r="B601" s="13"/>
       <c r="C601" s="14"/>
@@ -18870,7 +19171,7 @@
       <c r="Z601" s="13"/>
       <c r="AA601" s="13"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A602" s="84"/>
       <c r="B602" s="13"/>
       <c r="C602" s="14"/>
@@ -18899,7 +19200,7 @@
       <c r="Z602" s="13"/>
       <c r="AA602" s="13"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A603" s="84"/>
       <c r="B603" s="13"/>
       <c r="C603" s="14"/>
@@ -18928,7 +19229,7 @@
       <c r="Z603" s="13"/>
       <c r="AA603" s="13"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A604" s="84"/>
       <c r="B604" s="13"/>
       <c r="C604" s="14"/>
@@ -18957,7 +19258,7 @@
       <c r="Z604" s="13"/>
       <c r="AA604" s="13"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A605" s="84"/>
       <c r="B605" s="13"/>
       <c r="C605" s="14"/>
@@ -18986,7 +19287,7 @@
       <c r="Z605" s="13"/>
       <c r="AA605" s="13"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A606" s="84"/>
       <c r="B606" s="13"/>
       <c r="C606" s="14"/>
@@ -19015,7 +19316,7 @@
       <c r="Z606" s="13"/>
       <c r="AA606" s="13"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A607" s="84"/>
       <c r="B607" s="13"/>
       <c r="C607" s="14"/>
@@ -19044,7 +19345,7 @@
       <c r="Z607" s="13"/>
       <c r="AA607" s="13"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A608" s="84"/>
       <c r="B608" s="13"/>
       <c r="C608" s="14"/>
@@ -19073,7 +19374,7 @@
       <c r="Z608" s="13"/>
       <c r="AA608" s="13"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A609" s="84"/>
       <c r="B609" s="13"/>
       <c r="C609" s="14"/>
@@ -19102,7 +19403,7 @@
       <c r="Z609" s="13"/>
       <c r="AA609" s="13"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A610" s="84"/>
       <c r="B610" s="13"/>
       <c r="C610" s="14"/>
@@ -19131,7 +19432,7 @@
       <c r="Z610" s="13"/>
       <c r="AA610" s="13"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A611" s="84"/>
       <c r="B611" s="13"/>
       <c r="C611" s="14"/>
@@ -19160,7 +19461,7 @@
       <c r="Z611" s="13"/>
       <c r="AA611" s="13"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A612" s="84"/>
       <c r="B612" s="13"/>
       <c r="C612" s="14"/>
@@ -19189,7 +19490,7 @@
       <c r="Z612" s="13"/>
       <c r="AA612" s="13"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A613" s="84"/>
       <c r="B613" s="13"/>
       <c r="C613" s="14"/>
@@ -19218,7 +19519,7 @@
       <c r="Z613" s="13"/>
       <c r="AA613" s="13"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A614" s="84"/>
       <c r="B614" s="13"/>
       <c r="C614" s="14"/>
@@ -19247,7 +19548,7 @@
       <c r="Z614" s="13"/>
       <c r="AA614" s="13"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A615" s="84"/>
       <c r="B615" s="13"/>
       <c r="C615" s="14"/>
@@ -19276,7 +19577,7 @@
       <c r="Z615" s="13"/>
       <c r="AA615" s="13"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A616" s="84"/>
       <c r="B616" s="13"/>
       <c r="C616" s="14"/>
@@ -19305,7 +19606,7 @@
       <c r="Z616" s="13"/>
       <c r="AA616" s="13"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A617" s="84"/>
       <c r="B617" s="13"/>
       <c r="C617" s="14"/>
@@ -19334,7 +19635,7 @@
       <c r="Z617" s="13"/>
       <c r="AA617" s="13"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A618" s="84"/>
       <c r="B618" s="13"/>
       <c r="C618" s="14"/>
@@ -19363,7 +19664,7 @@
       <c r="Z618" s="13"/>
       <c r="AA618" s="13"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A619" s="84"/>
       <c r="B619" s="13"/>
       <c r="C619" s="14"/>
@@ -19392,7 +19693,7 @@
       <c r="Z619" s="13"/>
       <c r="AA619" s="13"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A620" s="84"/>
       <c r="B620" s="13"/>
       <c r="C620" s="14"/>
@@ -19421,7 +19722,7 @@
       <c r="Z620" s="13"/>
       <c r="AA620" s="13"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A621" s="84"/>
       <c r="B621" s="13"/>
       <c r="C621" s="14"/>
@@ -19450,7 +19751,7 @@
       <c r="Z621" s="13"/>
       <c r="AA621" s="13"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A622" s="84"/>
       <c r="B622" s="13"/>
       <c r="C622" s="14"/>
@@ -19479,7 +19780,7 @@
       <c r="Z622" s="13"/>
       <c r="AA622" s="13"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A623" s="84"/>
       <c r="B623" s="13"/>
       <c r="C623" s="14"/>
@@ -19508,7 +19809,7 @@
       <c r="Z623" s="13"/>
       <c r="AA623" s="13"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A624" s="84"/>
       <c r="B624" s="13"/>
       <c r="C624" s="14"/>
@@ -19537,7 +19838,7 @@
       <c r="Z624" s="13"/>
       <c r="AA624" s="13"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A625" s="84"/>
       <c r="B625" s="13"/>
       <c r="C625" s="14"/>
@@ -19566,7 +19867,7 @@
       <c r="Z625" s="13"/>
       <c r="AA625" s="13"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A626" s="84"/>
       <c r="B626" s="13"/>
       <c r="C626" s="14"/>
@@ -19595,7 +19896,7 @@
       <c r="Z626" s="13"/>
       <c r="AA626" s="13"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A627" s="84"/>
       <c r="B627" s="13"/>
       <c r="C627" s="14"/>
@@ -19624,7 +19925,7 @@
       <c r="Z627" s="13"/>
       <c r="AA627" s="13"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A628" s="84"/>
       <c r="B628" s="13"/>
       <c r="C628" s="14"/>
@@ -19653,7 +19954,7 @@
       <c r="Z628" s="13"/>
       <c r="AA628" s="13"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A629" s="84"/>
       <c r="B629" s="13"/>
       <c r="C629" s="14"/>
@@ -19682,7 +19983,7 @@
       <c r="Z629" s="13"/>
       <c r="AA629" s="13"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A630" s="84"/>
       <c r="B630" s="13"/>
       <c r="C630" s="14"/>
@@ -19711,7 +20012,7 @@
       <c r="Z630" s="13"/>
       <c r="AA630" s="13"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A631" s="84"/>
       <c r="B631" s="13"/>
       <c r="C631" s="14"/>
@@ -19740,7 +20041,7 @@
       <c r="Z631" s="13"/>
       <c r="AA631" s="13"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A632" s="84"/>
       <c r="B632" s="13"/>
       <c r="C632" s="14"/>
@@ -19769,7 +20070,7 @@
       <c r="Z632" s="13"/>
       <c r="AA632" s="13"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A633" s="84"/>
       <c r="B633" s="13"/>
       <c r="C633" s="14"/>
@@ -19798,7 +20099,7 @@
       <c r="Z633" s="13"/>
       <c r="AA633" s="13"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A634" s="84"/>
       <c r="B634" s="13"/>
       <c r="C634" s="14"/>
@@ -19827,7 +20128,7 @@
       <c r="Z634" s="13"/>
       <c r="AA634" s="13"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A635" s="84"/>
       <c r="B635" s="13"/>
       <c r="C635" s="14"/>
@@ -19856,7 +20157,7 @@
       <c r="Z635" s="13"/>
       <c r="AA635" s="13"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A636" s="84"/>
       <c r="B636" s="13"/>
       <c r="C636" s="14"/>
@@ -19885,7 +20186,7 @@
       <c r="Z636" s="13"/>
       <c r="AA636" s="13"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A637" s="84"/>
       <c r="B637" s="13"/>
       <c r="C637" s="14"/>
@@ -19914,7 +20215,7 @@
       <c r="Z637" s="13"/>
       <c r="AA637" s="13"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A638" s="84"/>
       <c r="B638" s="13"/>
       <c r="C638" s="14"/>
@@ -19943,7 +20244,7 @@
       <c r="Z638" s="13"/>
       <c r="AA638" s="13"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A639" s="84"/>
       <c r="B639" s="13"/>
       <c r="C639" s="14"/>
@@ -19972,7 +20273,7 @@
       <c r="Z639" s="13"/>
       <c r="AA639" s="13"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A640" s="84"/>
       <c r="B640" s="13"/>
       <c r="C640" s="14"/>
@@ -20001,7 +20302,7 @@
       <c r="Z640" s="13"/>
       <c r="AA640" s="13"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A641" s="84"/>
       <c r="B641" s="13"/>
       <c r="C641" s="14"/>
@@ -20030,7 +20331,7 @@
       <c r="Z641" s="13"/>
       <c r="AA641" s="13"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A642" s="84"/>
       <c r="B642" s="13"/>
       <c r="C642" s="14"/>
@@ -20059,7 +20360,7 @@
       <c r="Z642" s="13"/>
       <c r="AA642" s="13"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A643" s="84"/>
       <c r="B643" s="13"/>
       <c r="C643" s="14"/>
@@ -20088,7 +20389,7 @@
       <c r="Z643" s="13"/>
       <c r="AA643" s="13"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A644" s="84"/>
       <c r="B644" s="13"/>
       <c r="C644" s="14"/>
@@ -20117,7 +20418,7 @@
       <c r="Z644" s="13"/>
       <c r="AA644" s="13"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A645" s="84"/>
       <c r="B645" s="13"/>
       <c r="C645" s="14"/>
@@ -20146,7 +20447,7 @@
       <c r="Z645" s="13"/>
       <c r="AA645" s="13"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A646" s="84"/>
       <c r="B646" s="13"/>
       <c r="C646" s="14"/>
@@ -20175,7 +20476,7 @@
       <c r="Z646" s="13"/>
       <c r="AA646" s="13"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A647" s="84"/>
       <c r="B647" s="13"/>
       <c r="C647" s="14"/>
@@ -20204,7 +20505,7 @@
       <c r="Z647" s="13"/>
       <c r="AA647" s="13"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A648" s="84"/>
       <c r="B648" s="13"/>
       <c r="C648" s="14"/>
@@ -20233,7 +20534,7 @@
       <c r="Z648" s="13"/>
       <c r="AA648" s="13"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A649" s="84"/>
       <c r="B649" s="13"/>
       <c r="C649" s="14"/>
@@ -20262,7 +20563,7 @@
       <c r="Z649" s="13"/>
       <c r="AA649" s="13"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A650" s="84"/>
       <c r="B650" s="13"/>
       <c r="C650" s="14"/>
@@ -20291,7 +20592,7 @@
       <c r="Z650" s="13"/>
       <c r="AA650" s="13"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A651" s="84"/>
       <c r="B651" s="13"/>
       <c r="C651" s="14"/>
@@ -20320,7 +20621,7 @@
       <c r="Z651" s="13"/>
       <c r="AA651" s="13"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A652" s="84"/>
       <c r="B652" s="13"/>
       <c r="C652" s="14"/>
@@ -20349,7 +20650,7 @@
       <c r="Z652" s="13"/>
       <c r="AA652" s="13"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A653" s="84"/>
       <c r="B653" s="13"/>
       <c r="C653" s="14"/>
@@ -20378,7 +20679,7 @@
       <c r="Z653" s="13"/>
       <c r="AA653" s="13"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A654" s="84"/>
       <c r="B654" s="13"/>
       <c r="C654" s="14"/>
@@ -20407,7 +20708,7 @@
       <c r="Z654" s="13"/>
       <c r="AA654" s="13"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A655" s="84"/>
       <c r="B655" s="13"/>
       <c r="C655" s="14"/>
@@ -20436,7 +20737,7 @@
       <c r="Z655" s="13"/>
       <c r="AA655" s="13"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A656" s="84"/>
       <c r="B656" s="13"/>
       <c r="C656" s="14"/>
@@ -20465,7 +20766,7 @@
       <c r="Z656" s="13"/>
       <c r="AA656" s="13"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A657" s="84"/>
       <c r="B657" s="13"/>
       <c r="C657" s="14"/>
@@ -20494,7 +20795,7 @@
       <c r="Z657" s="13"/>
       <c r="AA657" s="13"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A658" s="84"/>
       <c r="B658" s="13"/>
       <c r="C658" s="14"/>
@@ -20523,7 +20824,7 @@
       <c r="Z658" s="13"/>
       <c r="AA658" s="13"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A659" s="84"/>
       <c r="B659" s="13"/>
       <c r="C659" s="14"/>
@@ -20552,7 +20853,7 @@
       <c r="Z659" s="13"/>
       <c r="AA659" s="13"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A660" s="84"/>
       <c r="B660" s="13"/>
       <c r="C660" s="14"/>
@@ -20581,7 +20882,7 @@
       <c r="Z660" s="13"/>
       <c r="AA660" s="13"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A661" s="84"/>
       <c r="B661" s="13"/>
       <c r="C661" s="14"/>
@@ -20610,7 +20911,7 @@
       <c r="Z661" s="13"/>
       <c r="AA661" s="13"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A662" s="84"/>
       <c r="B662" s="13"/>
       <c r="C662" s="14"/>
@@ -20639,7 +20940,7 @@
       <c r="Z662" s="13"/>
       <c r="AA662" s="13"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A663" s="84"/>
       <c r="B663" s="13"/>
       <c r="C663" s="14"/>
@@ -20668,7 +20969,7 @@
       <c r="Z663" s="13"/>
       <c r="AA663" s="13"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A664" s="84"/>
       <c r="B664" s="13"/>
       <c r="C664" s="14"/>
@@ -20697,7 +20998,7 @@
       <c r="Z664" s="13"/>
       <c r="AA664" s="13"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A665" s="84"/>
       <c r="B665" s="13"/>
       <c r="C665" s="14"/>
@@ -20726,7 +21027,7 @@
       <c r="Z665" s="13"/>
       <c r="AA665" s="13"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A666" s="84"/>
       <c r="B666" s="13"/>
       <c r="C666" s="14"/>
@@ -20755,7 +21056,7 @@
       <c r="Z666" s="13"/>
       <c r="AA666" s="13"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A667" s="84"/>
       <c r="B667" s="13"/>
       <c r="C667" s="14"/>
@@ -20784,7 +21085,7 @@
       <c r="Z667" s="13"/>
       <c r="AA667" s="13"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A668" s="84"/>
       <c r="B668" s="13"/>
       <c r="C668" s="14"/>
@@ -20813,7 +21114,7 @@
       <c r="Z668" s="13"/>
       <c r="AA668" s="13"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A669" s="84"/>
       <c r="B669" s="13"/>
       <c r="C669" s="14"/>
@@ -20842,7 +21143,7 @@
       <c r="Z669" s="13"/>
       <c r="AA669" s="13"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A670" s="84"/>
       <c r="B670" s="13"/>
       <c r="C670" s="14"/>
@@ -20871,7 +21172,7 @@
       <c r="Z670" s="13"/>
       <c r="AA670" s="13"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A671" s="84"/>
       <c r="B671" s="13"/>
       <c r="C671" s="14"/>
@@ -20900,7 +21201,7 @@
       <c r="Z671" s="13"/>
       <c r="AA671" s="13"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A672" s="84"/>
       <c r="B672" s="13"/>
       <c r="C672" s="14"/>
@@ -20929,7 +21230,7 @@
       <c r="Z672" s="13"/>
       <c r="AA672" s="13"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A673" s="84"/>
       <c r="B673" s="13"/>
       <c r="C673" s="14"/>
@@ -20958,7 +21259,7 @@
       <c r="Z673" s="13"/>
       <c r="AA673" s="13"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A674" s="84"/>
       <c r="B674" s="13"/>
       <c r="C674" s="14"/>
@@ -20987,7 +21288,7 @@
       <c r="Z674" s="13"/>
       <c r="AA674" s="13"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A675" s="84"/>
       <c r="B675" s="13"/>
       <c r="C675" s="14"/>
@@ -21016,7 +21317,7 @@
       <c r="Z675" s="13"/>
       <c r="AA675" s="13"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A676" s="84"/>
       <c r="B676" s="13"/>
       <c r="C676" s="14"/>
@@ -21045,7 +21346,7 @@
       <c r="Z676" s="13"/>
       <c r="AA676" s="13"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A677" s="84"/>
       <c r="B677" s="13"/>
       <c r="C677" s="14"/>
@@ -21074,7 +21375,7 @@
       <c r="Z677" s="13"/>
       <c r="AA677" s="13"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A678" s="84"/>
       <c r="B678" s="13"/>
       <c r="C678" s="14"/>
@@ -21103,7 +21404,7 @@
       <c r="Z678" s="13"/>
       <c r="AA678" s="13"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A679" s="84"/>
       <c r="B679" s="13"/>
       <c r="C679" s="14"/>
@@ -21132,7 +21433,7 @@
       <c r="Z679" s="13"/>
       <c r="AA679" s="13"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A680" s="84"/>
       <c r="B680" s="13"/>
       <c r="C680" s="14"/>
@@ -21161,7 +21462,7 @@
       <c r="Z680" s="13"/>
       <c r="AA680" s="13"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A681" s="84"/>
       <c r="B681" s="13"/>
       <c r="C681" s="14"/>
@@ -21190,7 +21491,7 @@
       <c r="Z681" s="13"/>
       <c r="AA681" s="13"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A682" s="84"/>
       <c r="B682" s="13"/>
       <c r="C682" s="14"/>
@@ -21219,7 +21520,7 @@
       <c r="Z682" s="13"/>
       <c r="AA682" s="13"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A683" s="84"/>
       <c r="B683" s="13"/>
       <c r="C683" s="14"/>
@@ -21248,7 +21549,7 @@
       <c r="Z683" s="13"/>
       <c r="AA683" s="13"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A684" s="84"/>
       <c r="B684" s="13"/>
       <c r="C684" s="14"/>
@@ -21277,7 +21578,7 @@
       <c r="Z684" s="13"/>
       <c r="AA684" s="13"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A685" s="84"/>
       <c r="B685" s="13"/>
       <c r="C685" s="14"/>
@@ -21306,7 +21607,7 @@
       <c r="Z685" s="13"/>
       <c r="AA685" s="13"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A686" s="84"/>
       <c r="B686" s="13"/>
       <c r="C686" s="14"/>
@@ -21335,7 +21636,7 @@
       <c r="Z686" s="13"/>
       <c r="AA686" s="13"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A687" s="84"/>
       <c r="B687" s="13"/>
       <c r="C687" s="14"/>
@@ -21364,7 +21665,7 @@
       <c r="Z687" s="13"/>
       <c r="AA687" s="13"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A688" s="84"/>
       <c r="B688" s="13"/>
       <c r="C688" s="14"/>
@@ -21393,7 +21694,7 @@
       <c r="Z688" s="13"/>
       <c r="AA688" s="13"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A689" s="84"/>
       <c r="B689" s="13"/>
       <c r="C689" s="14"/>
@@ -21422,7 +21723,7 @@
       <c r="Z689" s="13"/>
       <c r="AA689" s="13"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A690" s="84"/>
       <c r="B690" s="13"/>
       <c r="C690" s="14"/>
@@ -21451,7 +21752,7 @@
       <c r="Z690" s="13"/>
       <c r="AA690" s="13"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A691" s="84"/>
       <c r="B691" s="13"/>
       <c r="C691" s="14"/>
@@ -21480,7 +21781,7 @@
       <c r="Z691" s="13"/>
       <c r="AA691" s="13"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A692" s="84"/>
       <c r="B692" s="13"/>
       <c r="C692" s="14"/>
@@ -21509,7 +21810,7 @@
       <c r="Z692" s="13"/>
       <c r="AA692" s="13"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A693" s="84"/>
       <c r="B693" s="13"/>
       <c r="C693" s="14"/>
@@ -21538,7 +21839,7 @@
       <c r="Z693" s="13"/>
       <c r="AA693" s="13"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A694" s="84"/>
       <c r="B694" s="13"/>
       <c r="C694" s="14"/>
@@ -21567,7 +21868,7 @@
       <c r="Z694" s="13"/>
       <c r="AA694" s="13"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A695" s="84"/>
       <c r="B695" s="13"/>
       <c r="C695" s="14"/>
@@ -21596,7 +21897,7 @@
       <c r="Z695" s="13"/>
       <c r="AA695" s="13"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A696" s="84"/>
       <c r="B696" s="13"/>
       <c r="C696" s="14"/>
@@ -21625,7 +21926,7 @@
       <c r="Z696" s="13"/>
       <c r="AA696" s="13"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A697" s="84"/>
       <c r="B697" s="13"/>
       <c r="C697" s="14"/>
@@ -21654,7 +21955,7 @@
       <c r="Z697" s="13"/>
       <c r="AA697" s="13"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A698" s="84"/>
       <c r="B698" s="13"/>
       <c r="C698" s="14"/>
@@ -21683,7 +21984,7 @@
       <c r="Z698" s="13"/>
       <c r="AA698" s="13"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A699" s="84"/>
       <c r="B699" s="13"/>
       <c r="C699" s="14"/>
@@ -21712,7 +22013,7 @@
       <c r="Z699" s="13"/>
       <c r="AA699" s="13"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A700" s="84"/>
       <c r="B700" s="13"/>
       <c r="C700" s="14"/>
@@ -21741,7 +22042,7 @@
       <c r="Z700" s="13"/>
       <c r="AA700" s="13"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A701" s="84"/>
       <c r="B701" s="13"/>
       <c r="C701" s="14"/>
@@ -21770,7 +22071,7 @@
       <c r="Z701" s="13"/>
       <c r="AA701" s="13"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A702" s="84"/>
       <c r="B702" s="13"/>
       <c r="C702" s="14"/>
@@ -21799,7 +22100,7 @@
       <c r="Z702" s="13"/>
       <c r="AA702" s="13"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A703" s="84"/>
       <c r="B703" s="13"/>
       <c r="C703" s="14"/>
@@ -21828,7 +22129,7 @@
       <c r="Z703" s="13"/>
       <c r="AA703" s="13"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A704" s="84"/>
       <c r="B704" s="13"/>
       <c r="C704" s="14"/>
@@ -21857,7 +22158,7 @@
       <c r="Z704" s="13"/>
       <c r="AA704" s="13"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A705" s="84"/>
       <c r="B705" s="13"/>
       <c r="C705" s="14"/>
@@ -21886,7 +22187,7 @@
       <c r="Z705" s="13"/>
       <c r="AA705" s="13"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A706" s="84"/>
       <c r="B706" s="13"/>
       <c r="C706" s="14"/>
@@ -21915,7 +22216,7 @@
       <c r="Z706" s="13"/>
       <c r="AA706" s="13"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A707" s="84"/>
       <c r="B707" s="13"/>
       <c r="C707" s="14"/>
@@ -21944,7 +22245,7 @@
       <c r="Z707" s="13"/>
       <c r="AA707" s="13"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A708" s="84"/>
       <c r="B708" s="13"/>
       <c r="C708" s="14"/>
@@ -21973,7 +22274,7 @@
       <c r="Z708" s="13"/>
       <c r="AA708" s="13"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A709" s="84"/>
       <c r="B709" s="13"/>
       <c r="C709" s="14"/>
@@ -22002,7 +22303,7 @@
       <c r="Z709" s="13"/>
       <c r="AA709" s="13"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A710" s="84"/>
       <c r="B710" s="13"/>
       <c r="C710" s="14"/>
@@ -22031,7 +22332,7 @@
       <c r="Z710" s="13"/>
       <c r="AA710" s="13"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A711" s="84"/>
       <c r="B711" s="13"/>
       <c r="C711" s="14"/>
@@ -22060,7 +22361,7 @@
       <c r="Z711" s="13"/>
       <c r="AA711" s="13"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A712" s="84"/>
       <c r="B712" s="13"/>
       <c r="C712" s="14"/>
@@ -22089,7 +22390,7 @@
       <c r="Z712" s="13"/>
       <c r="AA712" s="13"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A713" s="84"/>
       <c r="B713" s="13"/>
       <c r="C713" s="14"/>
@@ -22118,7 +22419,7 @@
       <c r="Z713" s="13"/>
       <c r="AA713" s="13"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A714" s="84"/>
       <c r="B714" s="13"/>
       <c r="C714" s="14"/>
@@ -22147,7 +22448,7 @@
       <c r="Z714" s="13"/>
       <c r="AA714" s="13"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A715" s="84"/>
       <c r="B715" s="13"/>
       <c r="C715" s="14"/>
@@ -22176,7 +22477,7 @@
       <c r="Z715" s="13"/>
       <c r="AA715" s="13"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A716" s="84"/>
       <c r="B716" s="13"/>
       <c r="C716" s="14"/>
@@ -22205,7 +22506,7 @@
       <c r="Z716" s="13"/>
       <c r="AA716" s="13"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A717" s="84"/>
       <c r="B717" s="13"/>
       <c r="C717" s="14"/>
@@ -22234,7 +22535,7 @@
       <c r="Z717" s="13"/>
       <c r="AA717" s="13"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A718" s="84"/>
       <c r="B718" s="13"/>
       <c r="C718" s="14"/>
@@ -22263,7 +22564,7 @@
       <c r="Z718" s="13"/>
       <c r="AA718" s="13"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A719" s="84"/>
       <c r="B719" s="13"/>
       <c r="C719" s="14"/>
@@ -22292,7 +22593,7 @@
       <c r="Z719" s="13"/>
       <c r="AA719" s="13"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A720" s="84"/>
       <c r="B720" s="13"/>
       <c r="C720" s="14"/>
@@ -22321,7 +22622,7 @@
       <c r="Z720" s="13"/>
       <c r="AA720" s="13"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A721" s="84"/>
       <c r="B721" s="13"/>
       <c r="C721" s="14"/>
@@ -22350,7 +22651,7 @@
       <c r="Z721" s="13"/>
       <c r="AA721" s="13"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A722" s="84"/>
       <c r="B722" s="13"/>
       <c r="C722" s="14"/>
@@ -22379,7 +22680,7 @@
       <c r="Z722" s="13"/>
       <c r="AA722" s="13"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A723" s="84"/>
       <c r="B723" s="13"/>
       <c r="C723" s="14"/>
@@ -22408,7 +22709,7 @@
       <c r="Z723" s="13"/>
       <c r="AA723" s="13"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A724" s="84"/>
       <c r="B724" s="13"/>
       <c r="C724" s="14"/>
@@ -22437,7 +22738,7 @@
       <c r="Z724" s="13"/>
       <c r="AA724" s="13"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A725" s="84"/>
       <c r="B725" s="13"/>
       <c r="C725" s="14"/>
@@ -22466,7 +22767,7 @@
       <c r="Z725" s="13"/>
       <c r="AA725" s="13"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A726" s="84"/>
       <c r="B726" s="13"/>
       <c r="C726" s="14"/>
@@ -22495,7 +22796,7 @@
       <c r="Z726" s="13"/>
       <c r="AA726" s="13"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A727" s="84"/>
       <c r="B727" s="13"/>
       <c r="C727" s="14"/>
@@ -22524,7 +22825,7 @@
       <c r="Z727" s="13"/>
       <c r="AA727" s="13"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A728" s="84"/>
       <c r="B728" s="13"/>
       <c r="C728" s="14"/>
@@ -22553,7 +22854,7 @@
       <c r="Z728" s="13"/>
       <c r="AA728" s="13"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A729" s="84"/>
       <c r="B729" s="13"/>
       <c r="C729" s="14"/>
@@ -22582,7 +22883,7 @@
       <c r="Z729" s="13"/>
       <c r="AA729" s="13"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A730" s="84"/>
       <c r="B730" s="13"/>
       <c r="C730" s="14"/>
@@ -22611,7 +22912,7 @@
       <c r="Z730" s="13"/>
       <c r="AA730" s="13"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A731" s="84"/>
       <c r="B731" s="13"/>
       <c r="C731" s="14"/>
@@ -22640,7 +22941,7 @@
       <c r="Z731" s="13"/>
       <c r="AA731" s="13"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A732" s="84"/>
       <c r="B732" s="13"/>
       <c r="C732" s="14"/>
@@ -22669,7 +22970,7 @@
       <c r="Z732" s="13"/>
       <c r="AA732" s="13"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A733" s="84"/>
       <c r="B733" s="13"/>
       <c r="C733" s="14"/>
@@ -22698,7 +22999,7 @@
       <c r="Z733" s="13"/>
       <c r="AA733" s="13"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A734" s="84"/>
       <c r="B734" s="13"/>
       <c r="C734" s="14"/>
@@ -22727,7 +23028,7 @@
       <c r="Z734" s="13"/>
       <c r="AA734" s="13"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A735" s="84"/>
       <c r="B735" s="13"/>
       <c r="C735" s="14"/>
@@ -22756,7 +23057,7 @@
       <c r="Z735" s="13"/>
       <c r="AA735" s="13"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A736" s="84"/>
       <c r="B736" s="13"/>
       <c r="C736" s="14"/>
@@ -22785,7 +23086,7 @@
       <c r="Z736" s="13"/>
       <c r="AA736" s="13"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A737" s="84"/>
       <c r="B737" s="13"/>
       <c r="C737" s="14"/>
@@ -22814,7 +23115,7 @@
       <c r="Z737" s="13"/>
       <c r="AA737" s="13"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A738" s="84"/>
       <c r="B738" s="13"/>
       <c r="C738" s="14"/>
@@ -22843,7 +23144,7 @@
       <c r="Z738" s="13"/>
       <c r="AA738" s="13"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A739" s="84"/>
       <c r="B739" s="13"/>
       <c r="C739" s="14"/>
@@ -22872,7 +23173,7 @@
       <c r="Z739" s="13"/>
       <c r="AA739" s="13"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A740" s="84"/>
       <c r="B740" s="13"/>
       <c r="C740" s="14"/>
@@ -22901,7 +23202,7 @@
       <c r="Z740" s="13"/>
       <c r="AA740" s="13"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A741" s="84"/>
       <c r="B741" s="13"/>
       <c r="C741" s="14"/>
@@ -22930,7 +23231,7 @@
       <c r="Z741" s="13"/>
       <c r="AA741" s="13"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A742" s="84"/>
       <c r="B742" s="13"/>
       <c r="C742" s="14"/>
@@ -22959,7 +23260,7 @@
       <c r="Z742" s="13"/>
       <c r="AA742" s="13"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A743" s="84"/>
       <c r="B743" s="13"/>
       <c r="C743" s="14"/>
@@ -22988,7 +23289,7 @@
       <c r="Z743" s="13"/>
       <c r="AA743" s="13"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A744" s="84"/>
       <c r="B744" s="13"/>
       <c r="C744" s="14"/>
@@ -23017,7 +23318,7 @@
       <c r="Z744" s="13"/>
       <c r="AA744" s="13"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A745" s="84"/>
       <c r="B745" s="13"/>
       <c r="C745" s="14"/>
@@ -23046,7 +23347,7 @@
       <c r="Z745" s="13"/>
       <c r="AA745" s="13"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A746" s="84"/>
       <c r="B746" s="13"/>
       <c r="C746" s="14"/>
@@ -23075,7 +23376,7 @@
       <c r="Z746" s="13"/>
       <c r="AA746" s="13"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A747" s="84"/>
       <c r="B747" s="13"/>
       <c r="C747" s="14"/>
@@ -23104,7 +23405,7 @@
       <c r="Z747" s="13"/>
       <c r="AA747" s="13"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A748" s="84"/>
       <c r="B748" s="13"/>
       <c r="C748" s="14"/>
@@ -23133,7 +23434,7 @@
       <c r="Z748" s="13"/>
       <c r="AA748" s="13"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A749" s="84"/>
       <c r="B749" s="13"/>
       <c r="C749" s="14"/>
@@ -23162,7 +23463,7 @@
       <c r="Z749" s="13"/>
       <c r="AA749" s="13"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A750" s="84"/>
       <c r="B750" s="13"/>
       <c r="C750" s="14"/>
@@ -23191,7 +23492,7 @@
       <c r="Z750" s="13"/>
       <c r="AA750" s="13"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A751" s="84"/>
       <c r="B751" s="13"/>
       <c r="C751" s="14"/>
@@ -23220,7 +23521,7 @@
       <c r="Z751" s="13"/>
       <c r="AA751" s="13"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A752" s="84"/>
       <c r="B752" s="13"/>
       <c r="C752" s="14"/>
@@ -23249,7 +23550,7 @@
       <c r="Z752" s="13"/>
       <c r="AA752" s="13"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A753" s="84"/>
       <c r="B753" s="13"/>
       <c r="C753" s="14"/>
@@ -23278,7 +23579,7 @@
       <c r="Z753" s="13"/>
       <c r="AA753" s="13"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A754" s="84"/>
       <c r="B754" s="13"/>
       <c r="C754" s="14"/>
@@ -23307,7 +23608,7 @@
       <c r="Z754" s="13"/>
       <c r="AA754" s="13"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A755" s="84"/>
       <c r="B755" s="13"/>
       <c r="C755" s="14"/>
@@ -23336,7 +23637,7 @@
       <c r="Z755" s="13"/>
       <c r="AA755" s="13"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A756" s="84"/>
       <c r="B756" s="13"/>
       <c r="C756" s="14"/>
@@ -23365,7 +23666,7 @@
       <c r="Z756" s="13"/>
       <c r="AA756" s="13"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A757" s="84"/>
       <c r="B757" s="13"/>
       <c r="C757" s="14"/>
@@ -23394,7 +23695,7 @@
       <c r="Z757" s="13"/>
       <c r="AA757" s="13"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A758" s="84"/>
       <c r="B758" s="13"/>
       <c r="C758" s="14"/>
@@ -23423,7 +23724,7 @@
       <c r="Z758" s="13"/>
       <c r="AA758" s="13"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A759" s="84"/>
       <c r="B759" s="13"/>
       <c r="C759" s="14"/>
@@ -23452,7 +23753,7 @@
       <c r="Z759" s="13"/>
       <c r="AA759" s="13"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A760" s="84"/>
       <c r="B760" s="13"/>
       <c r="C760" s="14"/>
@@ -23481,7 +23782,7 @@
       <c r="Z760" s="13"/>
       <c r="AA760" s="13"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A761" s="84"/>
       <c r="B761" s="13"/>
       <c r="C761" s="14"/>
@@ -23510,7 +23811,7 @@
       <c r="Z761" s="13"/>
       <c r="AA761" s="13"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A762" s="84"/>
       <c r="B762" s="13"/>
       <c r="C762" s="14"/>
@@ -23539,7 +23840,7 @@
       <c r="Z762" s="13"/>
       <c r="AA762" s="13"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A763" s="84"/>
       <c r="B763" s="13"/>
       <c r="C763" s="14"/>
@@ -23568,7 +23869,7 @@
       <c r="Z763" s="13"/>
       <c r="AA763" s="13"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A764" s="84"/>
       <c r="B764" s="13"/>
       <c r="C764" s="14"/>
@@ -23597,7 +23898,7 @@
       <c r="Z764" s="13"/>
       <c r="AA764" s="13"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A765" s="84"/>
       <c r="B765" s="13"/>
       <c r="C765" s="14"/>
@@ -23626,7 +23927,7 @@
       <c r="Z765" s="13"/>
       <c r="AA765" s="13"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A766" s="84"/>
       <c r="B766" s="13"/>
       <c r="C766" s="14"/>
@@ -23655,7 +23956,7 @@
       <c r="Z766" s="13"/>
       <c r="AA766" s="13"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A767" s="84"/>
       <c r="B767" s="13"/>
       <c r="C767" s="14"/>
@@ -23684,7 +23985,7 @@
       <c r="Z767" s="13"/>
       <c r="AA767" s="13"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A768" s="84"/>
       <c r="B768" s="13"/>
       <c r="C768" s="14"/>
@@ -23713,7 +24014,7 @@
       <c r="Z768" s="13"/>
       <c r="AA768" s="13"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A769" s="84"/>
       <c r="B769" s="13"/>
       <c r="C769" s="14"/>
@@ -23742,7 +24043,7 @@
       <c r="Z769" s="13"/>
       <c r="AA769" s="13"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A770" s="84"/>
       <c r="B770" s="13"/>
       <c r="C770" s="14"/>
@@ -23771,7 +24072,7 @@
       <c r="Z770" s="13"/>
       <c r="AA770" s="13"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A771" s="84"/>
       <c r="B771" s="13"/>
       <c r="C771" s="14"/>
@@ -23800,7 +24101,7 @@
       <c r="Z771" s="13"/>
       <c r="AA771" s="13"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A772" s="84"/>
       <c r="B772" s="13"/>
       <c r="C772" s="14"/>
@@ -23829,7 +24130,7 @@
       <c r="Z772" s="13"/>
       <c r="AA772" s="13"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A773" s="84"/>
       <c r="B773" s="13"/>
       <c r="C773" s="14"/>
@@ -23858,7 +24159,7 @@
       <c r="Z773" s="13"/>
       <c r="AA773" s="13"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A774" s="84"/>
       <c r="B774" s="13"/>
       <c r="C774" s="14"/>
@@ -23887,7 +24188,7 @@
       <c r="Z774" s="13"/>
       <c r="AA774" s="13"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A775" s="84"/>
       <c r="B775" s="13"/>
       <c r="C775" s="14"/>
@@ -23916,7 +24217,7 @@
       <c r="Z775" s="13"/>
       <c r="AA775" s="13"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A776" s="84"/>
       <c r="B776" s="13"/>
       <c r="C776" s="14"/>
@@ -23945,7 +24246,7 @@
       <c r="Z776" s="13"/>
       <c r="AA776" s="13"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A777" s="84"/>
       <c r="B777" s="13"/>
       <c r="C777" s="14"/>
@@ -23974,7 +24275,7 @@
       <c r="Z777" s="13"/>
       <c r="AA777" s="13"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A778" s="84"/>
       <c r="B778" s="13"/>
       <c r="C778" s="14"/>
@@ -24003,7 +24304,7 @@
       <c r="Z778" s="13"/>
       <c r="AA778" s="13"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A779" s="84"/>
       <c r="B779" s="13"/>
       <c r="C779" s="14"/>
@@ -24032,7 +24333,7 @@
       <c r="Z779" s="13"/>
       <c r="AA779" s="13"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A780" s="84"/>
       <c r="B780" s="13"/>
       <c r="C780" s="14"/>
@@ -24061,7 +24362,7 @@
       <c r="Z780" s="13"/>
       <c r="AA780" s="13"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A781" s="84"/>
       <c r="B781" s="13"/>
       <c r="C781" s="14"/>
@@ -24090,7 +24391,7 @@
       <c r="Z781" s="13"/>
       <c r="AA781" s="13"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A782" s="84"/>
       <c r="B782" s="13"/>
       <c r="C782" s="14"/>
@@ -24119,7 +24420,7 @@
       <c r="Z782" s="13"/>
       <c r="AA782" s="13"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A783" s="84"/>
       <c r="B783" s="13"/>
       <c r="C783" s="14"/>
@@ -24148,7 +24449,7 @@
       <c r="Z783" s="13"/>
       <c r="AA783" s="13"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A784" s="84"/>
       <c r="B784" s="13"/>
       <c r="C784" s="14"/>
@@ -24177,7 +24478,7 @@
       <c r="Z784" s="13"/>
       <c r="AA784" s="13"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A785" s="84"/>
       <c r="B785" s="13"/>
       <c r="C785" s="14"/>
@@ -24206,7 +24507,7 @@
       <c r="Z785" s="13"/>
       <c r="AA785" s="13"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A786" s="84"/>
       <c r="B786" s="13"/>
       <c r="C786" s="14"/>
@@ -24235,7 +24536,7 @@
       <c r="Z786" s="13"/>
       <c r="AA786" s="13"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A787" s="84"/>
       <c r="B787" s="13"/>
       <c r="C787" s="14"/>
@@ -24264,7 +24565,7 @@
       <c r="Z787" s="13"/>
       <c r="AA787" s="13"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A788" s="84"/>
       <c r="B788" s="13"/>
       <c r="C788" s="14"/>
@@ -24293,7 +24594,7 @@
       <c r="Z788" s="13"/>
       <c r="AA788" s="13"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A789" s="84"/>
       <c r="B789" s="13"/>
       <c r="C789" s="14"/>
@@ -24322,7 +24623,7 @@
       <c r="Z789" s="13"/>
       <c r="AA789" s="13"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A790" s="84"/>
       <c r="B790" s="13"/>
       <c r="C790" s="14"/>
@@ -24351,7 +24652,7 @@
       <c r="Z790" s="13"/>
       <c r="AA790" s="13"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A791" s="84"/>
       <c r="B791" s="13"/>
       <c r="C791" s="14"/>
@@ -24380,7 +24681,7 @@
       <c r="Z791" s="13"/>
       <c r="AA791" s="13"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A792" s="84"/>
       <c r="B792" s="13"/>
       <c r="C792" s="14"/>
@@ -24409,7 +24710,7 @@
       <c r="Z792" s="13"/>
       <c r="AA792" s="13"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A793" s="84"/>
       <c r="B793" s="13"/>
       <c r="C793" s="14"/>
@@ -24438,7 +24739,7 @@
       <c r="Z793" s="13"/>
       <c r="AA793" s="13"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A794" s="84"/>
       <c r="B794" s="13"/>
       <c r="C794" s="14"/>
@@ -24467,7 +24768,7 @@
       <c r="Z794" s="13"/>
       <c r="AA794" s="13"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A795" s="84"/>
       <c r="B795" s="13"/>
       <c r="C795" s="14"/>
@@ -24496,7 +24797,7 @@
       <c r="Z795" s="13"/>
       <c r="AA795" s="13"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A796" s="84"/>
       <c r="B796" s="13"/>
       <c r="C796" s="14"/>
@@ -24525,7 +24826,7 @@
       <c r="Z796" s="13"/>
       <c r="AA796" s="13"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A797" s="84"/>
       <c r="B797" s="13"/>
       <c r="C797" s="14"/>
@@ -24554,7 +24855,7 @@
       <c r="Z797" s="13"/>
       <c r="AA797" s="13"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A798" s="84"/>
       <c r="B798" s="13"/>
       <c r="C798" s="14"/>
@@ -24583,7 +24884,7 @@
       <c r="Z798" s="13"/>
       <c r="AA798" s="13"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A799" s="84"/>
       <c r="B799" s="13"/>
       <c r="C799" s="14"/>
@@ -24612,7 +24913,7 @@
       <c r="Z799" s="13"/>
       <c r="AA799" s="13"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A800" s="84"/>
       <c r="B800" s="13"/>
       <c r="C800" s="14"/>
@@ -24641,7 +24942,7 @@
       <c r="Z800" s="13"/>
       <c r="AA800" s="13"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A801" s="84"/>
       <c r="B801" s="13"/>
       <c r="C801" s="14"/>
@@ -24670,7 +24971,7 @@
       <c r="Z801" s="13"/>
       <c r="AA801" s="13"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A802" s="84"/>
       <c r="B802" s="13"/>
       <c r="C802" s="14"/>
@@ -24699,7 +25000,7 @@
       <c r="Z802" s="13"/>
       <c r="AA802" s="13"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A803" s="84"/>
       <c r="B803" s="13"/>
       <c r="C803" s="14"/>
@@ -24728,7 +25029,7 @@
       <c r="Z803" s="13"/>
       <c r="AA803" s="13"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A804" s="84"/>
       <c r="B804" s="13"/>
       <c r="C804" s="14"/>
@@ -24757,7 +25058,7 @@
       <c r="Z804" s="13"/>
       <c r="AA804" s="13"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A805" s="84"/>
       <c r="B805" s="13"/>
       <c r="C805" s="14"/>
@@ -24786,7 +25087,7 @@
       <c r="Z805" s="13"/>
       <c r="AA805" s="13"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A806" s="84"/>
       <c r="B806" s="13"/>
       <c r="C806" s="14"/>
@@ -24815,7 +25116,7 @@
       <c r="Z806" s="13"/>
       <c r="AA806" s="13"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A807" s="84"/>
       <c r="B807" s="13"/>
       <c r="C807" s="14"/>
@@ -24844,7 +25145,7 @@
       <c r="Z807" s="13"/>
       <c r="AA807" s="13"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A808" s="84"/>
       <c r="B808" s="13"/>
       <c r="C808" s="14"/>
@@ -24873,7 +25174,7 @@
       <c r="Z808" s="13"/>
       <c r="AA808" s="13"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A809" s="84"/>
       <c r="B809" s="13"/>
       <c r="C809" s="14"/>
@@ -24902,7 +25203,7 @@
       <c r="Z809" s="13"/>
       <c r="AA809" s="13"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A810" s="84"/>
       <c r="B810" s="13"/>
       <c r="C810" s="14"/>
@@ -24931,7 +25232,7 @@
       <c r="Z810" s="13"/>
       <c r="AA810" s="13"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A811" s="84"/>
       <c r="B811" s="13"/>
       <c r="C811" s="14"/>
@@ -24960,7 +25261,7 @@
       <c r="Z811" s="13"/>
       <c r="AA811" s="13"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A812" s="84"/>
       <c r="B812" s="13"/>
       <c r="C812" s="14"/>
@@ -24989,7 +25290,7 @@
       <c r="Z812" s="13"/>
       <c r="AA812" s="13"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A813" s="84"/>
       <c r="B813" s="13"/>
       <c r="C813" s="14"/>
@@ -25019,6 +25320,6 @@
       <c r="AA813" s="13"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>